--- a/JupyterNotebooks/AvgHW/Alpha3F-HW25.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha3F-HW25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
     <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,68 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -612,121 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -734,28 +626,28 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.002278338983066</v>
+        <v>1.001536808815234</v>
       </c>
       <c r="D3">
-        <v>0.993277425905111</v>
+        <v>0.9968519566698526</v>
       </c>
       <c r="E3">
-        <v>1.001231651062985</v>
+        <v>1.002610200591526</v>
       </c>
       <c r="F3">
         <v>1.002278338983066</v>
       </c>
       <c r="G3">
-        <v>1.002610200591526</v>
+        <v>0.993277425905111</v>
       </c>
       <c r="H3">
-        <v>0.9968519566698526</v>
+        <v>1.002278338983066</v>
       </c>
       <c r="I3">
-        <v>1.001536808815234</v>
+        <v>0.993277425905111</v>
       </c>
       <c r="J3">
-        <v>0.993277425905111</v>
+        <v>1.001231651062985</v>
       </c>
       <c r="K3">
         <v>1.002278338983066</v>
@@ -788,7 +680,7 @@
         <v>0.9996310636712957</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -796,28 +688,28 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.004514637560676</v>
+        <v>1.002967167807092</v>
       </c>
       <c r="D4">
-        <v>0.9870244538872426</v>
+        <v>0.9939135626727936</v>
       </c>
       <c r="E4">
-        <v>1.002330348206932</v>
+        <v>1.004957789339782</v>
       </c>
       <c r="F4">
         <v>1.004514637560676</v>
       </c>
       <c r="G4">
-        <v>1.004957789339782</v>
+        <v>0.9870244538872426</v>
       </c>
       <c r="H4">
-        <v>0.9939135626727936</v>
+        <v>1.004514637560676</v>
       </c>
       <c r="I4">
-        <v>1.002967167807092</v>
+        <v>0.9870244538872426</v>
       </c>
       <c r="J4">
-        <v>0.9870244538872426</v>
+        <v>1.002330348206932</v>
       </c>
       <c r="K4">
         <v>1.004514637560676</v>
@@ -826,13 +718,13 @@
         <v>1.002330348206932</v>
       </c>
       <c r="M4">
-        <v>0.9946774010470872</v>
+        <v>0.9946774010470874</v>
       </c>
       <c r="N4">
-        <v>0.9946774010470872</v>
+        <v>0.9946774010470874</v>
       </c>
       <c r="O4">
-        <v>0.994422788255656</v>
+        <v>0.9944227882556561</v>
       </c>
       <c r="P4">
         <v>0.9979564798849502</v>
@@ -850,7 +742,7 @@
         <v>0.9992846599124197</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -858,28 +750,28 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.008224670241024</v>
+        <v>1.005670429747623</v>
       </c>
       <c r="D5">
-        <v>0.9752789883000811</v>
+        <v>0.988357793343545</v>
       </c>
       <c r="E5">
-        <v>1.004619296664073</v>
+        <v>1.009890958676625</v>
       </c>
       <c r="F5">
         <v>1.008224670241024</v>
       </c>
       <c r="G5">
-        <v>1.009890958676625</v>
+        <v>0.9752789883000812</v>
       </c>
       <c r="H5">
-        <v>0.988357793343545</v>
+        <v>1.008224670241024</v>
       </c>
       <c r="I5">
-        <v>1.005670429747623</v>
+        <v>0.9752789883000812</v>
       </c>
       <c r="J5">
-        <v>0.9752789883000811</v>
+        <v>1.004619296664073</v>
       </c>
       <c r="K5">
         <v>1.008224670241024</v>
@@ -888,13 +780,13 @@
         <v>1.004619296664073</v>
       </c>
       <c r="M5">
-        <v>0.9899491424820772</v>
+        <v>0.9899491424820773</v>
       </c>
       <c r="N5">
-        <v>0.9899491424820772</v>
+        <v>0.9899491424820773</v>
       </c>
       <c r="O5">
-        <v>0.9894186927692331</v>
+        <v>0.9894186927692332</v>
       </c>
       <c r="P5">
         <v>0.9960409850683929</v>
@@ -912,7 +804,7 @@
         <v>0.9986736894954952</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -920,28 +812,28 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.011871323693613</v>
+        <v>1.008300066638466</v>
       </c>
       <c r="D6">
-        <v>0.9637742632526274</v>
+        <v>0.9829492621110728</v>
       </c>
       <c r="E6">
-        <v>1.006830420053867</v>
+        <v>1.014704458875463</v>
       </c>
       <c r="F6">
         <v>1.011871323693613</v>
       </c>
       <c r="G6">
-        <v>1.014704458875463</v>
+        <v>0.9637742632526274</v>
       </c>
       <c r="H6">
-        <v>0.9829492621110728</v>
+        <v>1.011871323693613</v>
       </c>
       <c r="I6">
-        <v>1.008300066638466</v>
+        <v>0.9637742632526274</v>
       </c>
       <c r="J6">
-        <v>0.9637742632526274</v>
+        <v>1.006830420053867</v>
       </c>
       <c r="K6">
         <v>1.011871323693613</v>
@@ -974,7 +866,7 @@
         <v>0.9980716324375182</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -982,28 +874,28 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000046607943644</v>
+        <v>1.000109328809915</v>
       </c>
       <c r="D7">
-        <v>0.9995740759593508</v>
+        <v>0.9997611859504548</v>
       </c>
       <c r="E7">
-        <v>1.000135138819513</v>
+        <v>1.000342081407088</v>
       </c>
       <c r="F7">
         <v>1.000046607943644</v>
       </c>
       <c r="G7">
-        <v>1.000342081407088</v>
+        <v>0.9995740759593511</v>
       </c>
       <c r="H7">
-        <v>0.9997611859504546</v>
+        <v>1.000046607943644</v>
       </c>
       <c r="I7">
-        <v>1.000109328809915</v>
+        <v>0.9995740759593511</v>
       </c>
       <c r="J7">
-        <v>0.9995740759593508</v>
+        <v>1.000135138819513</v>
       </c>
       <c r="K7">
         <v>1.000046607943644</v>
@@ -1012,31 +904,31 @@
         <v>1.000135138819513</v>
       </c>
       <c r="M7">
-        <v>0.9998546073894318</v>
+        <v>0.9998546073894319</v>
       </c>
       <c r="N7">
-        <v>0.9998546073894318</v>
+        <v>0.9998546073894319</v>
       </c>
       <c r="O7">
-        <v>0.9998234669097728</v>
+        <v>0.9998234669097729</v>
       </c>
       <c r="P7">
-        <v>0.9999186075741692</v>
+        <v>0.9999186075741694</v>
       </c>
       <c r="Q7">
-        <v>0.9999186075741692</v>
+        <v>0.9999186075741694</v>
       </c>
       <c r="R7">
-        <v>0.9999506076665379</v>
+        <v>0.9999506076665381</v>
       </c>
       <c r="S7">
-        <v>0.9999506076665379</v>
+        <v>0.9999506076665381</v>
       </c>
       <c r="T7">
-        <v>0.9999947364816609</v>
-      </c>
-    </row>
-    <row r="8" spans="1:40">
+        <v>0.999994736481661</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1044,28 +936,28 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000242646864936</v>
+        <v>1.000321160197245</v>
       </c>
       <c r="D8">
-        <v>0.9987217705109193</v>
+        <v>0.9993033629522952</v>
       </c>
       <c r="E8">
-        <v>1.000353469241996</v>
+        <v>1.000889823532336</v>
       </c>
       <c r="F8">
         <v>1.000242646864936</v>
       </c>
       <c r="G8">
-        <v>1.000889823532335</v>
+        <v>0.9987217705109184</v>
       </c>
       <c r="H8">
-        <v>0.9993033629522952</v>
+        <v>1.000242646864936</v>
       </c>
       <c r="I8">
-        <v>1.000321160197245</v>
+        <v>0.9987217705109184</v>
       </c>
       <c r="J8">
-        <v>0.9987217705109193</v>
+        <v>1.000353469241996</v>
       </c>
       <c r="K8">
         <v>1.000242646864936</v>
@@ -1074,19 +966,19 @@
         <v>1.000353469241996</v>
       </c>
       <c r="M8">
-        <v>0.9995376198764574</v>
+        <v>0.999537619876457</v>
       </c>
       <c r="N8">
-        <v>0.9995376198764574</v>
+        <v>0.999537619876457</v>
       </c>
       <c r="O8">
-        <v>0.9994595342350699</v>
+        <v>0.9994595342350697</v>
       </c>
       <c r="P8">
-        <v>0.9997726288726169</v>
+        <v>0.9997726288726168</v>
       </c>
       <c r="Q8">
-        <v>0.9997726288726169</v>
+        <v>0.9997726288726168</v>
       </c>
       <c r="R8">
         <v>0.9998901333706967</v>
@@ -1098,7 +990,7 @@
         <v>0.9999720388832877</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1106,28 +998,28 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000521371159902</v>
+        <v>1.000449878479392</v>
       </c>
       <c r="D9">
-        <v>0.9981630260262809</v>
+        <v>0.9990310968305647</v>
       </c>
       <c r="E9">
-        <v>1.000420455870045</v>
+        <v>1.001055246763294</v>
       </c>
       <c r="F9">
         <v>1.000521371159902</v>
       </c>
       <c r="G9">
-        <v>1.001055246763294</v>
+        <v>0.9981630260262809</v>
       </c>
       <c r="H9">
-        <v>0.9990310968305648</v>
+        <v>1.000521371159902</v>
       </c>
       <c r="I9">
-        <v>1.000449878479392</v>
+        <v>0.9981630260262809</v>
       </c>
       <c r="J9">
-        <v>0.9981630260262809</v>
+        <v>1.000420455870045</v>
       </c>
       <c r="K9">
         <v>1.000521371159902</v>
@@ -1157,10 +1049,10 @@
         <v>0.9999065560540327</v>
       </c>
       <c r="T9">
-        <v>0.9999401791882466</v>
-      </c>
-    </row>
-    <row r="10" spans="1:40">
+        <v>0.9999401791882465</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1168,28 +1060,28 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000899942899892</v>
+        <v>1.000963406252315</v>
       </c>
       <c r="D10">
-        <v>0.9961194121295651</v>
+        <v>0.9979157617499326</v>
       </c>
       <c r="E10">
-        <v>1.00098952227564</v>
+        <v>1.002493504185552</v>
       </c>
       <c r="F10">
         <v>1.000899942899892</v>
       </c>
       <c r="G10">
-        <v>1.002493504185552</v>
+        <v>0.9961194121295651</v>
       </c>
       <c r="H10">
-        <v>0.9979157617499326</v>
+        <v>1.000899942899892</v>
       </c>
       <c r="I10">
-        <v>1.000963406252315</v>
+        <v>0.9961194121295651</v>
       </c>
       <c r="J10">
-        <v>0.9961194121295651</v>
+        <v>1.00098952227564</v>
       </c>
       <c r="K10">
         <v>1.000899942899892</v>
@@ -1222,7 +1114,7 @@
         <v>0.9998969249154829</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1230,28 +1122,28 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.002075246017</v>
+        <v>1.0016383890987</v>
       </c>
       <c r="D11">
-        <v>0.9932685658082703</v>
+        <v>0.9964836333760886</v>
       </c>
       <c r="E11">
-        <v>1.001458610573902</v>
+        <v>1.003631947598661</v>
       </c>
       <c r="F11">
         <v>1.002075246017</v>
       </c>
       <c r="G11">
-        <v>1.003631947598662</v>
+        <v>0.9932685658082703</v>
       </c>
       <c r="H11">
-        <v>0.9964836333760886</v>
+        <v>1.002075246017</v>
       </c>
       <c r="I11">
-        <v>1.0016383890987</v>
+        <v>0.9932685658082703</v>
       </c>
       <c r="J11">
-        <v>0.9932685658082703</v>
+        <v>1.001458610573902</v>
       </c>
       <c r="K11">
         <v>1.002075246017</v>
@@ -1260,31 +1152,31 @@
         <v>1.001458610573902</v>
       </c>
       <c r="M11">
-        <v>0.9973635881910862</v>
+        <v>0.9973635881910863</v>
       </c>
       <c r="N11">
-        <v>0.9973635881910862</v>
+        <v>0.9973635881910863</v>
       </c>
       <c r="O11">
         <v>0.9970702699194204</v>
       </c>
       <c r="P11">
-        <v>0.9989341407997241</v>
+        <v>0.9989341407997242</v>
       </c>
       <c r="Q11">
-        <v>0.9989341407997241</v>
+        <v>0.9989341407997242</v>
       </c>
       <c r="R11">
-        <v>0.9997194171040431</v>
+        <v>0.9997194171040432</v>
       </c>
       <c r="S11">
-        <v>0.9997194171040431</v>
+        <v>0.9997194171040432</v>
       </c>
       <c r="T11">
         <v>0.9997593987454372</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1292,28 +1184,28 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9762328983501093</v>
+        <v>0.9789606011489488</v>
       </c>
       <c r="D12">
-        <v>1.077877451537533</v>
+        <v>1.05017208908841</v>
       </c>
       <c r="E12">
-        <v>0.9800831147905154</v>
+        <v>0.9327484584809496</v>
       </c>
       <c r="F12">
         <v>0.9762328983501093</v>
       </c>
       <c r="G12">
-        <v>0.9327484584809497</v>
+        <v>1.077877451537533</v>
       </c>
       <c r="H12">
-        <v>1.05017208908841</v>
+        <v>0.9762328983501093</v>
       </c>
       <c r="I12">
-        <v>0.9789606011489488</v>
+        <v>1.077877451537533</v>
       </c>
       <c r="J12">
-        <v>1.077877451537533</v>
+        <v>0.9800831147905154</v>
       </c>
       <c r="K12">
         <v>0.9762328983501093</v>
@@ -1346,7 +1238,7 @@
         <v>0.9993457688994112</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1354,31 +1246,31 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9988460005791484</v>
+        <v>0.9926053784202922</v>
       </c>
       <c r="D13">
+        <v>1.011857164849821</v>
+      </c>
+      <c r="E13">
+        <v>0.9900919982056045</v>
+      </c>
+      <c r="F13">
+        <v>0.9988460005791482</v>
+      </c>
+      <c r="G13">
         <v>1.036008032146925</v>
       </c>
-      <c r="E13">
+      <c r="H13">
+        <v>0.9988460005791482</v>
+      </c>
+      <c r="I13">
+        <v>1.036008032146925</v>
+      </c>
+      <c r="J13">
         <v>0.9900372152319273</v>
       </c>
-      <c r="F13">
-        <v>0.9988460005791484</v>
-      </c>
-      <c r="G13">
-        <v>0.9900919982056048</v>
-      </c>
-      <c r="H13">
-        <v>1.011857164849821</v>
-      </c>
-      <c r="I13">
-        <v>0.9926053784202922</v>
-      </c>
-      <c r="J13">
-        <v>1.036008032146925</v>
-      </c>
       <c r="K13">
-        <v>0.9988460005791484</v>
+        <v>0.9988460005791482</v>
       </c>
       <c r="L13">
         <v>0.9900372152319273</v>
@@ -1408,7 +1300,7 @@
         <v>1.00324096490562</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1416,28 +1308,28 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.8700956238553862</v>
+        <v>0.9237120272003099</v>
       </c>
       <c r="D14">
-        <v>1.335061443235451</v>
+        <v>1.155687464767944</v>
       </c>
       <c r="E14">
-        <v>0.9457763916802239</v>
+        <v>0.8891843764791993</v>
       </c>
       <c r="F14">
         <v>0.8700956238553862</v>
       </c>
       <c r="G14">
-        <v>0.8891843764791996</v>
+        <v>1.335061443235451</v>
       </c>
       <c r="H14">
-        <v>1.155687464767944</v>
+        <v>0.8700956238553862</v>
       </c>
       <c r="I14">
-        <v>0.9237120272003102</v>
+        <v>1.335061443235451</v>
       </c>
       <c r="J14">
-        <v>1.335061443235451</v>
+        <v>0.9457763916802239</v>
       </c>
       <c r="K14">
         <v>0.8700956238553862</v>
@@ -1470,7 +1362,7 @@
         <v>1.019919554536419</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1478,28 +1370,28 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9994301372983533</v>
+        <v>0.9847977284212999</v>
       </c>
       <c r="D15">
-        <v>1.042647621188966</v>
+        <v>1.04199403505895</v>
       </c>
       <c r="E15">
-        <v>0.9787761668046858</v>
+        <v>0.9161628456874087</v>
       </c>
       <c r="F15">
         <v>0.9994301372983533</v>
       </c>
       <c r="G15">
-        <v>0.9161628456874087</v>
+        <v>1.042647621188965</v>
       </c>
       <c r="H15">
-        <v>1.04199403505895</v>
+        <v>0.9994301372983533</v>
       </c>
       <c r="I15">
-        <v>0.9847977284212999</v>
+        <v>1.042647621188965</v>
       </c>
       <c r="J15">
-        <v>1.042647621188966</v>
+        <v>0.9787761668046858</v>
       </c>
       <c r="K15">
         <v>0.9994301372983533</v>
@@ -1529,10 +1421,10 @@
         <v>1.005071015647589</v>
       </c>
       <c r="T15">
-        <v>0.9939680890766106</v>
-      </c>
-    </row>
-    <row r="16" spans="1:40">
+        <v>0.9939680890766104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1540,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9993646409430413</v>
+        <v>1.029702184392326</v>
       </c>
       <c r="D16">
-        <v>1.000301328699251</v>
+        <v>0.9385628997068554</v>
       </c>
       <c r="E16">
-        <v>1.000221284574636</v>
+        <v>1.054302675379712</v>
       </c>
       <c r="F16">
-        <v>0.9993646409430413</v>
+        <v>1.042052225047815</v>
       </c>
       <c r="G16">
-        <v>1.000667695520432</v>
+        <v>0.8716104044248232</v>
       </c>
       <c r="H16">
-        <v>1.000011804180012</v>
+        <v>1.042052225047815</v>
       </c>
       <c r="I16">
-        <v>0.9999715349108754</v>
+        <v>0.8716104044248232</v>
       </c>
       <c r="J16">
-        <v>1.000301328699251</v>
+        <v>1.024619856039843</v>
       </c>
       <c r="K16">
-        <v>0.9993646409430413</v>
+        <v>1.042052225047815</v>
       </c>
       <c r="L16">
-        <v>1.000221284574636</v>
+        <v>1.024619856039843</v>
       </c>
       <c r="M16">
-        <v>1.000261306636943</v>
+        <v>0.9481151302323332</v>
       </c>
       <c r="N16">
-        <v>1.000261306636943</v>
+        <v>0.9481151302323332</v>
       </c>
       <c r="O16">
-        <v>1.0001781391513</v>
+        <v>0.9449310533905072</v>
       </c>
       <c r="P16">
-        <v>0.9999624180723093</v>
+        <v>0.9794274951708272</v>
       </c>
       <c r="Q16">
-        <v>0.9999624180723096</v>
+        <v>0.9794274951708272</v>
       </c>
       <c r="R16">
-        <v>0.9998129737899925</v>
+        <v>0.9950836776400741</v>
       </c>
       <c r="S16">
-        <v>0.9998129737899925</v>
+        <v>0.9950836776400741</v>
       </c>
       <c r="T16">
-        <v>1.000089714804708</v>
+        <v>0.9934750408318959</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1602,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000904345709062</v>
+        <v>1.023973737063563</v>
       </c>
       <c r="D17">
-        <v>0.9990476075662947</v>
+        <v>0.9498070073142536</v>
       </c>
       <c r="E17">
-        <v>0.9998756823636539</v>
+        <v>1.05019090686234</v>
       </c>
       <c r="F17">
-        <v>1.000904345709062</v>
+        <v>1.029306564316697</v>
       </c>
       <c r="G17">
-        <v>0.9994981217320993</v>
+        <v>0.898363299957093</v>
       </c>
       <c r="H17">
-        <v>0.9996953136296278</v>
+        <v>1.029306564316697</v>
       </c>
       <c r="I17">
-        <v>1.000175584650901</v>
+        <v>0.898363299957093</v>
       </c>
       <c r="J17">
-        <v>0.9990476075662947</v>
+        <v>1.021779152333759</v>
       </c>
       <c r="K17">
-        <v>1.000904345709062</v>
+        <v>1.029306564316697</v>
       </c>
       <c r="L17">
-        <v>0.9998756823636539</v>
+        <v>1.021779152333759</v>
       </c>
       <c r="M17">
-        <v>0.9994616449649742</v>
+        <v>0.9600712261454262</v>
       </c>
       <c r="N17">
-        <v>0.9994616449649742</v>
+        <v>0.9600712261454262</v>
       </c>
       <c r="O17">
-        <v>0.9995395345198587</v>
+        <v>0.9566498198683687</v>
       </c>
       <c r="P17">
-        <v>0.9999425452130035</v>
+        <v>0.9831496722025164</v>
       </c>
       <c r="Q17">
-        <v>0.9999425452130035</v>
+        <v>0.9831496722025164</v>
       </c>
       <c r="R17">
-        <v>1.000182995337018</v>
+        <v>0.9946888952310615</v>
       </c>
       <c r="S17">
-        <v>1.000182995337018</v>
+        <v>0.9946888952310615</v>
       </c>
       <c r="T17">
-        <v>0.9998661092752732</v>
+        <v>0.995570111307951</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1664,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.998985845600207</v>
+        <v>1.012508279050232</v>
       </c>
       <c r="D18">
-        <v>0.9988527087250627</v>
+        <v>0.9723326792750333</v>
       </c>
       <c r="E18">
-        <v>1.000945816618609</v>
+        <v>1.041583881656735</v>
       </c>
       <c r="F18">
-        <v>0.998985845600207</v>
+        <v>1.004126835476952</v>
       </c>
       <c r="G18">
-        <v>1.002585563018587</v>
+        <v>0.9518123347626537</v>
       </c>
       <c r="H18">
-        <v>0.9990947884663997</v>
+        <v>1.004126835476952</v>
       </c>
       <c r="I18">
-        <v>1.000374396447368</v>
+        <v>0.9518123347626537</v>
       </c>
       <c r="J18">
-        <v>0.9988527087250627</v>
+        <v>1.015957431355831</v>
       </c>
       <c r="K18">
-        <v>0.998985845600207</v>
+        <v>1.004126835476952</v>
       </c>
       <c r="L18">
-        <v>1.000945816618609</v>
+        <v>1.015957431355831</v>
       </c>
       <c r="M18">
-        <v>0.9998992626718358</v>
+        <v>0.9838848830592426</v>
       </c>
       <c r="N18">
-        <v>0.9998992626718358</v>
+        <v>0.9838848830592426</v>
       </c>
       <c r="O18">
-        <v>0.999631104603357</v>
+        <v>0.9800341484645062</v>
       </c>
       <c r="P18">
-        <v>0.9995947903146263</v>
+        <v>0.9906322005318122</v>
       </c>
       <c r="Q18">
-        <v>0.9995947903146263</v>
+        <v>0.9906322005318122</v>
       </c>
       <c r="R18">
-        <v>0.9994425541360215</v>
+        <v>0.9940058592680971</v>
       </c>
       <c r="S18">
-        <v>0.9994425541360215</v>
+        <v>0.9940058592680971</v>
       </c>
       <c r="T18">
-        <v>1.000139853146039</v>
+        <v>0.999720240262906</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1726,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9951654973228147</v>
+        <v>1.013941361359556</v>
       </c>
       <c r="D19">
+        <v>0.9694060630960929</v>
+      </c>
+      <c r="E19">
+        <v>1.049099986675939</v>
+      </c>
+      <c r="F19">
+        <v>1.000710254122547</v>
+      </c>
+      <c r="G19">
+        <v>0.9465303496957445</v>
+      </c>
+      <c r="H19">
+        <v>1.000710254122547</v>
+      </c>
+      <c r="I19">
+        <v>0.9465303496957445</v>
+      </c>
+      <c r="J19">
+        <v>1.019386258495689</v>
+      </c>
+      <c r="K19">
+        <v>1.000710254122547</v>
+      </c>
+      <c r="L19">
+        <v>1.019386258495689</v>
+      </c>
+      <c r="M19">
+        <v>0.9829583040957165</v>
+      </c>
+      <c r="N19">
+        <v>0.9829583040957165</v>
+      </c>
+      <c r="O19">
+        <v>0.9784408904291753</v>
+      </c>
+      <c r="P19">
+        <v>0.9888756207713266</v>
+      </c>
+      <c r="Q19">
+        <v>0.9888756207713266</v>
+      </c>
+      <c r="R19">
+        <v>0.9918342791091318</v>
+      </c>
+      <c r="S19">
+        <v>0.9918342791091318</v>
+      </c>
+      <c r="T19">
+        <v>0.9998457122409278</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9999715349108756</v>
+      </c>
+      <c r="D20">
+        <v>1.000011804180012</v>
+      </c>
+      <c r="E20">
+        <v>1.000667695520432</v>
+      </c>
+      <c r="F20">
+        <v>0.9993646409430413</v>
+      </c>
+      <c r="G20">
+        <v>1.000301328699251</v>
+      </c>
+      <c r="H20">
+        <v>0.9993646409430413</v>
+      </c>
+      <c r="I20">
+        <v>1.000301328699251</v>
+      </c>
+      <c r="J20">
+        <v>1.000221284574636</v>
+      </c>
+      <c r="K20">
+        <v>0.9993646409430413</v>
+      </c>
+      <c r="L20">
+        <v>1.000221284574636</v>
+      </c>
+      <c r="M20">
+        <v>1.000261306636943</v>
+      </c>
+      <c r="N20">
+        <v>1.000261306636943</v>
+      </c>
+      <c r="O20">
+        <v>1.0001781391513</v>
+      </c>
+      <c r="P20">
+        <v>0.9999624180723093</v>
+      </c>
+      <c r="Q20">
+        <v>0.9999624180723096</v>
+      </c>
+      <c r="R20">
+        <v>0.9998129737899925</v>
+      </c>
+      <c r="S20">
+        <v>0.9998129737899925</v>
+      </c>
+      <c r="T20">
+        <v>1.000089714804708</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.000175584650901</v>
+      </c>
+      <c r="D21">
+        <v>0.9996953136296278</v>
+      </c>
+      <c r="E21">
+        <v>0.9994981217320993</v>
+      </c>
+      <c r="F21">
+        <v>1.000904345709062</v>
+      </c>
+      <c r="G21">
+        <v>0.9990476075662951</v>
+      </c>
+      <c r="H21">
+        <v>1.000904345709062</v>
+      </c>
+      <c r="I21">
+        <v>0.9990476075662951</v>
+      </c>
+      <c r="J21">
+        <v>0.999875682363654</v>
+      </c>
+      <c r="K21">
+        <v>1.000904345709062</v>
+      </c>
+      <c r="L21">
+        <v>0.999875682363654</v>
+      </c>
+      <c r="M21">
+        <v>0.9994616449649745</v>
+      </c>
+      <c r="N21">
+        <v>0.9994616449649745</v>
+      </c>
+      <c r="O21">
+        <v>0.999539534519859</v>
+      </c>
+      <c r="P21">
+        <v>0.9999425452130035</v>
+      </c>
+      <c r="Q21">
+        <v>0.9999425452130036</v>
+      </c>
+      <c r="R21">
+        <v>1.000182995337018</v>
+      </c>
+      <c r="S21">
+        <v>1.000182995337018</v>
+      </c>
+      <c r="T21">
+        <v>0.9998661092752732</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.000374396447368</v>
+      </c>
+      <c r="D22">
+        <v>0.9990947884663997</v>
+      </c>
+      <c r="E22">
+        <v>1.002585563018587</v>
+      </c>
+      <c r="F22">
+        <v>0.998985845600207</v>
+      </c>
+      <c r="G22">
+        <v>0.9988527087250627</v>
+      </c>
+      <c r="H22">
+        <v>0.998985845600207</v>
+      </c>
+      <c r="I22">
+        <v>0.9988527087250627</v>
+      </c>
+      <c r="J22">
+        <v>1.000945816618609</v>
+      </c>
+      <c r="K22">
+        <v>0.998985845600207</v>
+      </c>
+      <c r="L22">
+        <v>1.000945816618609</v>
+      </c>
+      <c r="M22">
+        <v>0.9998992626718357</v>
+      </c>
+      <c r="N22">
+        <v>0.9998992626718357</v>
+      </c>
+      <c r="O22">
+        <v>0.999631104603357</v>
+      </c>
+      <c r="P22">
+        <v>0.9995947903146262</v>
+      </c>
+      <c r="Q22">
+        <v>0.9995947903146262</v>
+      </c>
+      <c r="R22">
+        <v>0.9994425541360213</v>
+      </c>
+      <c r="S22">
+        <v>0.9994425541360213</v>
+      </c>
+      <c r="T22">
+        <v>1.000139853146039</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.000755405381218</v>
+      </c>
+      <c r="D23">
+        <v>0.9979894349027767</v>
+      </c>
+      <c r="E23">
+        <v>1.008480993758392</v>
+      </c>
+      <c r="F23">
+        <v>0.9951654973228152</v>
+      </c>
+      <c r="G23">
         <v>0.998412141883855</v>
       </c>
-      <c r="E19">
+      <c r="H23">
+        <v>0.9951654973228152</v>
+      </c>
+      <c r="I23">
+        <v>0.998412141883855</v>
+      </c>
+      <c r="J23">
         <v>1.003055780826184</v>
       </c>
-      <c r="F19">
-        <v>0.9951654973228147</v>
-      </c>
-      <c r="G19">
-        <v>1.008480993758392</v>
-      </c>
-      <c r="H19">
-        <v>0.9979894349027767</v>
-      </c>
-      <c r="I19">
-        <v>1.000755405381218</v>
-      </c>
-      <c r="J19">
-        <v>0.998412141883855</v>
-      </c>
-      <c r="K19">
-        <v>0.9951654973228147</v>
-      </c>
-      <c r="L19">
+      <c r="K23">
+        <v>0.9951654973228152</v>
+      </c>
+      <c r="L23">
         <v>1.003055780826184</v>
       </c>
-      <c r="M19">
+      <c r="M23">
         <v>1.000733961355019</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>1.000733961355019</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>0.9998191192042718</v>
       </c>
-      <c r="P19">
-        <v>0.9988778066776178</v>
-      </c>
-      <c r="Q19">
-        <v>0.9988778066776178</v>
-      </c>
-      <c r="R19">
-        <v>0.997949729338917</v>
-      </c>
-      <c r="S19">
-        <v>0.997949729338917</v>
-      </c>
-      <c r="T19">
+      <c r="P23">
+        <v>0.9988778066776179</v>
+      </c>
+      <c r="Q23">
+        <v>0.9988778066776179</v>
+      </c>
+      <c r="R23">
+        <v>0.9979497293389172</v>
+      </c>
+      <c r="S23">
+        <v>0.9979497293389172</v>
+      </c>
+      <c r="T23">
         <v>1.00064320901254</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/Alpha3F-HW25.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha3F-HW25.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[3, 2, 1]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.001536808815234</v>
+        <v>1.01583789538905</v>
       </c>
       <c r="D3">
-        <v>0.9968519566698526</v>
+        <v>0.9652271944092247</v>
       </c>
       <c r="E3">
-        <v>1.002610200591526</v>
+        <v>1.050289408804033</v>
       </c>
       <c r="F3">
-        <v>1.002278338983066</v>
+        <v>1.006764224257925</v>
       </c>
       <c r="G3">
-        <v>0.993277425905111</v>
+        <v>0.9383261708573483</v>
       </c>
       <c r="H3">
-        <v>1.002278338983066</v>
+        <v>1.006764224257925</v>
       </c>
       <c r="I3">
-        <v>0.993277425905111</v>
+        <v>0.9383261708573483</v>
       </c>
       <c r="J3">
-        <v>1.001231651062985</v>
+        <v>1.019571911945244</v>
       </c>
       <c r="K3">
-        <v>1.002278338983066</v>
+        <v>1.006764224257925</v>
       </c>
       <c r="L3">
-        <v>1.001231651062985</v>
+        <v>1.019571911945244</v>
       </c>
       <c r="M3">
-        <v>0.9972545384840479</v>
+        <v>0.9789490414012962</v>
       </c>
       <c r="N3">
-        <v>0.9972545384840479</v>
+        <v>0.9789490414012962</v>
       </c>
       <c r="O3">
-        <v>0.9971203445459828</v>
+        <v>0.974375092403939</v>
       </c>
       <c r="P3">
-        <v>0.9989291386503872</v>
+        <v>0.9882207690201725</v>
       </c>
       <c r="Q3">
-        <v>0.9989291386503871</v>
+        <v>0.9882207690201725</v>
       </c>
       <c r="R3">
-        <v>0.9997664387335568</v>
+        <v>0.9928566328296107</v>
       </c>
       <c r="S3">
-        <v>0.9997664387335568</v>
+        <v>0.9928566328296107</v>
       </c>
       <c r="T3">
-        <v>0.9996310636712957</v>
+        <v>0.9993361342771375</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.002967167807092</v>
+        <v>1.014020666707047</v>
       </c>
       <c r="D4">
-        <v>0.9939135626727936</v>
+        <v>0.9690904218971286</v>
       </c>
       <c r="E4">
-        <v>1.004957789339782</v>
+        <v>1.045825211200148</v>
       </c>
       <c r="F4">
-        <v>1.004514637560676</v>
+        <v>1.005070066024034</v>
       </c>
       <c r="G4">
-        <v>0.9870244538872426</v>
+        <v>0.9457584488688013</v>
       </c>
       <c r="H4">
-        <v>1.004514637560676</v>
+        <v>1.005070066024034</v>
       </c>
       <c r="I4">
-        <v>0.9870244538872426</v>
+        <v>0.9457584488688013</v>
       </c>
       <c r="J4">
-        <v>1.002330348206932</v>
+        <v>1.017704037993841</v>
       </c>
       <c r="K4">
-        <v>1.004514637560676</v>
+        <v>1.005070066024034</v>
       </c>
       <c r="L4">
-        <v>1.002330348206932</v>
+        <v>1.017704037993841</v>
       </c>
       <c r="M4">
-        <v>0.9946774010470874</v>
+        <v>0.9817312434313213</v>
       </c>
       <c r="N4">
-        <v>0.9946774010470874</v>
+        <v>0.9817312434313213</v>
       </c>
       <c r="O4">
-        <v>0.9944227882556561</v>
+        <v>0.977517636253257</v>
       </c>
       <c r="P4">
-        <v>0.9979564798849502</v>
+        <v>0.9895108509622257</v>
       </c>
       <c r="Q4">
-        <v>0.9979564798849502</v>
+        <v>0.9895108509622257</v>
       </c>
       <c r="R4">
-        <v>0.9995960193038815</v>
+        <v>0.9934006547276779</v>
       </c>
       <c r="S4">
-        <v>0.9995960193038815</v>
+        <v>0.9934006547276779</v>
       </c>
       <c r="T4">
-        <v>0.9992846599124197</v>
+        <v>0.9995781421151669</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.005670429747623</v>
+        <v>1.019273595687331</v>
       </c>
       <c r="D5">
-        <v>0.988357793343545</v>
+        <v>0.9579209949056615</v>
       </c>
       <c r="E5">
-        <v>1.009890958676625</v>
+        <v>1.058718218274934</v>
       </c>
       <c r="F5">
-        <v>1.008224670241024</v>
+        <v>1.009987026010782</v>
       </c>
       <c r="G5">
-        <v>0.9752789883000812</v>
+        <v>0.924277358679246</v>
       </c>
       <c r="H5">
-        <v>1.008224670241024</v>
+        <v>1.009987026010782</v>
       </c>
       <c r="I5">
-        <v>0.9752789883000812</v>
+        <v>0.924277358679246</v>
       </c>
       <c r="J5">
-        <v>1.004619296664073</v>
+        <v>1.023095221132076</v>
       </c>
       <c r="K5">
-        <v>1.008224670241024</v>
+        <v>1.009987026010782</v>
       </c>
       <c r="L5">
-        <v>1.004619296664073</v>
+        <v>1.023095221132076</v>
       </c>
       <c r="M5">
-        <v>0.9899491424820773</v>
+        <v>0.9736862899056609</v>
       </c>
       <c r="N5">
-        <v>0.9899491424820773</v>
+        <v>0.9736862899056609</v>
       </c>
       <c r="O5">
-        <v>0.9894186927692332</v>
+        <v>0.9684311915723277</v>
       </c>
       <c r="P5">
-        <v>0.9960409850683929</v>
+        <v>0.9857865352740346</v>
       </c>
       <c r="Q5">
-        <v>0.9960409850683929</v>
+        <v>0.9857865352740346</v>
       </c>
       <c r="R5">
-        <v>0.9990869063615507</v>
+        <v>0.9918366579582215</v>
       </c>
       <c r="S5">
-        <v>0.9990869063615507</v>
+        <v>0.9918366579582215</v>
       </c>
       <c r="T5">
-        <v>0.9986736894954952</v>
+        <v>0.9988787357816715</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.008300066638466</v>
+        <v>1.022463167386363</v>
       </c>
       <c r="D6">
-        <v>0.9829492621110728</v>
+        <v>0.9511354823863636</v>
       </c>
       <c r="E6">
-        <v>1.014704458875463</v>
+        <v>1.066529682727273</v>
       </c>
       <c r="F6">
-        <v>1.011871323693613</v>
+        <v>1.013002575056819</v>
       </c>
       <c r="G6">
-        <v>0.9637742632526274</v>
+        <v>0.9112383751704558</v>
       </c>
       <c r="H6">
-        <v>1.011871323693613</v>
+        <v>1.013002575056819</v>
       </c>
       <c r="I6">
-        <v>0.9637742632526274</v>
+        <v>0.9112383751704558</v>
       </c>
       <c r="J6">
-        <v>1.006830420053867</v>
+        <v>1.026356399090909</v>
       </c>
       <c r="K6">
-        <v>1.011871323693613</v>
+        <v>1.013002575056819</v>
       </c>
       <c r="L6">
-        <v>1.006830420053867</v>
+        <v>1.026356399090909</v>
       </c>
       <c r="M6">
-        <v>0.9853023416532471</v>
+        <v>0.9687973871306825</v>
       </c>
       <c r="N6">
-        <v>0.9853023416532471</v>
+        <v>0.9687973871306825</v>
       </c>
       <c r="O6">
-        <v>0.9845179818058557</v>
+        <v>0.9629100855492428</v>
       </c>
       <c r="P6">
-        <v>0.9941586690000358</v>
+        <v>0.9835324497727278</v>
       </c>
       <c r="Q6">
-        <v>0.9941586690000358</v>
+        <v>0.9835324497727278</v>
       </c>
       <c r="R6">
-        <v>0.99858683267343</v>
+        <v>0.9908999810937504</v>
       </c>
       <c r="S6">
-        <v>0.99858683267343</v>
+        <v>0.9908999810937504</v>
       </c>
       <c r="T6">
-        <v>0.9980716324375182</v>
+        <v>0.9984542803030306</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000109328809915</v>
+        <v>1.094329668071725</v>
       </c>
       <c r="D7">
-        <v>0.9997611859504548</v>
+        <v>0.8015664349779414</v>
       </c>
       <c r="E7">
-        <v>1.000342081407088</v>
+        <v>1.129279411800295</v>
       </c>
       <c r="F7">
-        <v>1.000046607943644</v>
+        <v>1.18997888729438</v>
       </c>
       <c r="G7">
-        <v>0.9995740759593511</v>
+        <v>0.5941129266753441</v>
       </c>
       <c r="H7">
-        <v>1.000046607943644</v>
+        <v>1.18997888729438</v>
       </c>
       <c r="I7">
-        <v>0.9995740759593511</v>
+        <v>0.5941129266753441</v>
       </c>
       <c r="J7">
-        <v>1.000135138819513</v>
+        <v>1.054967850929982</v>
       </c>
       <c r="K7">
-        <v>1.000046607943644</v>
+        <v>1.18997888729438</v>
       </c>
       <c r="L7">
-        <v>1.000135138819513</v>
+        <v>1.054967850929982</v>
       </c>
       <c r="M7">
-        <v>0.9998546073894319</v>
+        <v>0.8245403888026632</v>
       </c>
       <c r="N7">
-        <v>0.9998546073894319</v>
+        <v>0.8245403888026632</v>
       </c>
       <c r="O7">
-        <v>0.9998234669097729</v>
+        <v>0.8168824041944226</v>
       </c>
       <c r="P7">
-        <v>0.9999186075741694</v>
+        <v>0.9463532216332355</v>
       </c>
       <c r="Q7">
-        <v>0.9999186075741694</v>
+        <v>0.9463532216332355</v>
       </c>
       <c r="R7">
-        <v>0.9999506076665381</v>
+        <v>1.007259638048522</v>
       </c>
       <c r="S7">
-        <v>0.9999506076665381</v>
+        <v>1.007259638048522</v>
       </c>
       <c r="T7">
-        <v>0.999994736481661</v>
+        <v>0.9773725299582779</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000321160197245</v>
+        <v>1.094311840689</v>
       </c>
       <c r="D8">
-        <v>0.9993033629522952</v>
+        <v>0.8015858300408976</v>
       </c>
       <c r="E8">
-        <v>1.000889823532336</v>
+        <v>1.12969791767187</v>
       </c>
       <c r="F8">
-        <v>1.000242646864936</v>
+        <v>1.18953405722407</v>
       </c>
       <c r="G8">
-        <v>0.9987217705109184</v>
+        <v>0.5942908985687556</v>
       </c>
       <c r="H8">
-        <v>1.000242646864936</v>
+        <v>1.18953405722407</v>
       </c>
       <c r="I8">
-        <v>0.9987217705109184</v>
+        <v>0.5942908985687556</v>
       </c>
       <c r="J8">
-        <v>1.000353469241996</v>
+        <v>1.055125744823871</v>
       </c>
       <c r="K8">
-        <v>1.000242646864936</v>
+        <v>1.18953405722407</v>
       </c>
       <c r="L8">
-        <v>1.000353469241996</v>
+        <v>1.055125744823871</v>
       </c>
       <c r="M8">
-        <v>0.999537619876457</v>
+        <v>0.8247083216963135</v>
       </c>
       <c r="N8">
-        <v>0.999537619876457</v>
+        <v>0.8247083216963135</v>
       </c>
       <c r="O8">
-        <v>0.9994595342350697</v>
+        <v>0.8170008244778414</v>
       </c>
       <c r="P8">
-        <v>0.9997726288726168</v>
+        <v>0.9463169002055659</v>
       </c>
       <c r="Q8">
-        <v>0.9997726288726168</v>
+        <v>0.9463169002055659</v>
       </c>
       <c r="R8">
-        <v>0.9998901333706967</v>
+        <v>1.007121189460192</v>
       </c>
       <c r="S8">
-        <v>0.9998901333706967</v>
+        <v>1.007121189460192</v>
       </c>
       <c r="T8">
-        <v>0.9999720388832877</v>
+        <v>0.9774243815030775</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000449878479392</v>
+        <v>1.094277725288335</v>
       </c>
       <c r="D9">
-        <v>0.9990310968305647</v>
+        <v>0.801622945586889</v>
       </c>
       <c r="E9">
-        <v>1.001055246763294</v>
+        <v>1.130498795593987</v>
       </c>
       <c r="F9">
-        <v>1.000521371159902</v>
+        <v>1.188682803747076</v>
       </c>
       <c r="G9">
-        <v>0.9981630260262809</v>
+        <v>0.5946314762269367</v>
       </c>
       <c r="H9">
-        <v>1.000521371159902</v>
+        <v>1.188682803747076</v>
       </c>
       <c r="I9">
-        <v>0.9981630260262809</v>
+        <v>0.5946314762269367</v>
       </c>
       <c r="J9">
-        <v>1.000420455870045</v>
+        <v>1.055427899993987</v>
       </c>
       <c r="K9">
-        <v>1.000521371159902</v>
+        <v>1.188682803747076</v>
       </c>
       <c r="L9">
-        <v>1.000420455870045</v>
+        <v>1.055427899993987</v>
       </c>
       <c r="M9">
-        <v>0.999291740948163</v>
+        <v>0.8250296881104617</v>
       </c>
       <c r="N9">
-        <v>0.999291740948163</v>
+        <v>0.8250296881104617</v>
       </c>
       <c r="O9">
-        <v>0.9992048595756303</v>
+        <v>0.8172274406026041</v>
       </c>
       <c r="P9">
-        <v>0.9997016176854094</v>
+        <v>0.9462473933226664</v>
       </c>
       <c r="Q9">
-        <v>0.9997016176854094</v>
+        <v>0.9462473933226664</v>
       </c>
       <c r="R9">
-        <v>0.9999065560540327</v>
+        <v>1.006856245928769</v>
       </c>
       <c r="S9">
-        <v>0.9999065560540327</v>
+        <v>1.006856245928769</v>
       </c>
       <c r="T9">
-        <v>0.9999401791882465</v>
+        <v>0.9775236077395349</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000963406252315</v>
+        <v>1.09428032696274</v>
       </c>
       <c r="D10">
-        <v>0.9979157617499326</v>
+        <v>0.8016201152381653</v>
       </c>
       <c r="E10">
-        <v>1.002493504185552</v>
+        <v>1.130437722356758</v>
       </c>
       <c r="F10">
-        <v>1.000899942899892</v>
+        <v>1.188747718386634</v>
       </c>
       <c r="G10">
-        <v>0.9961194121295651</v>
+        <v>0.5946055045136405</v>
       </c>
       <c r="H10">
-        <v>1.000899942899892</v>
+        <v>1.188747718386634</v>
       </c>
       <c r="I10">
-        <v>0.9961194121295651</v>
+        <v>0.5946055045136405</v>
       </c>
       <c r="J10">
-        <v>1.00098952227564</v>
+        <v>1.055404858062645</v>
       </c>
       <c r="K10">
-        <v>1.000899942899892</v>
+        <v>1.188747718386634</v>
       </c>
       <c r="L10">
-        <v>1.00098952227564</v>
+        <v>1.055404858062645</v>
       </c>
       <c r="M10">
-        <v>0.9985544672026025</v>
+        <v>0.8250051812881427</v>
       </c>
       <c r="N10">
-        <v>0.9985544672026025</v>
+        <v>0.8250051812881427</v>
       </c>
       <c r="O10">
-        <v>0.9983415653850459</v>
+        <v>0.8172101592714837</v>
       </c>
       <c r="P10">
-        <v>0.9993362924350322</v>
+        <v>0.9462526936543064</v>
       </c>
       <c r="Q10">
-        <v>0.9993362924350322</v>
+        <v>0.9462526936543064</v>
       </c>
       <c r="R10">
-        <v>0.9997272050512471</v>
+        <v>1.006876449837388</v>
       </c>
       <c r="S10">
-        <v>0.9997272050512471</v>
+        <v>1.006876449837388</v>
       </c>
       <c r="T10">
-        <v>0.9998969249154829</v>
+        <v>0.977516040920097</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.0016383890987</v>
+        <v>1.002023901731235</v>
       </c>
       <c r="D11">
-        <v>0.9964836333760886</v>
+        <v>0.9958271379633181</v>
       </c>
       <c r="E11">
-        <v>1.003631947598661</v>
+        <v>1.00294605781747</v>
       </c>
       <c r="F11">
-        <v>1.002075246017</v>
+        <v>1.003615148924999</v>
       </c>
       <c r="G11">
-        <v>0.9932685658082703</v>
+        <v>0.9911263220042859</v>
       </c>
       <c r="H11">
-        <v>1.002075246017</v>
+        <v>1.003615148924999</v>
       </c>
       <c r="I11">
-        <v>0.9932685658082703</v>
+        <v>0.9911263220042859</v>
       </c>
       <c r="J11">
-        <v>1.001458610573902</v>
+        <v>1.001369065859894</v>
       </c>
       <c r="K11">
-        <v>1.002075246017</v>
+        <v>1.003615148924999</v>
       </c>
       <c r="L11">
-        <v>1.001458610573902</v>
+        <v>1.001369065859894</v>
       </c>
       <c r="M11">
-        <v>0.9973635881910863</v>
+        <v>0.9962476939320899</v>
       </c>
       <c r="N11">
-        <v>0.9973635881910863</v>
+        <v>0.9962476939320899</v>
       </c>
       <c r="O11">
-        <v>0.9970702699194204</v>
+        <v>0.9961075086091661</v>
       </c>
       <c r="P11">
-        <v>0.9989341407997242</v>
+        <v>0.9987035122630598</v>
       </c>
       <c r="Q11">
-        <v>0.9989341407997242</v>
+        <v>0.9987035122630598</v>
       </c>
       <c r="R11">
-        <v>0.9997194171040432</v>
+        <v>0.9999314214285446</v>
       </c>
       <c r="S11">
-        <v>0.9997194171040432</v>
+        <v>0.9999314214285446</v>
       </c>
       <c r="T11">
-        <v>0.9997593987454372</v>
+        <v>0.999484605716867</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9789606011489488</v>
+        <v>1.001218322368306</v>
       </c>
       <c r="D12">
-        <v>1.05017208908841</v>
+        <v>0.9974714038503187</v>
       </c>
       <c r="E12">
-        <v>0.9327484584809496</v>
+        <v>1.002044052227815</v>
       </c>
       <c r="F12">
-        <v>0.9762328983501093</v>
+        <v>1.001942287171397</v>
       </c>
       <c r="G12">
-        <v>1.077877451537533</v>
+        <v>0.9947384651168171</v>
       </c>
       <c r="H12">
-        <v>0.9762328983501093</v>
+        <v>1.001942287171397</v>
       </c>
       <c r="I12">
-        <v>1.077877451537533</v>
+        <v>0.9947384651168171</v>
       </c>
       <c r="J12">
-        <v>0.9800831147905154</v>
+        <v>1.000920393699964</v>
       </c>
       <c r="K12">
-        <v>0.9762328983501093</v>
+        <v>1.001942287171397</v>
       </c>
       <c r="L12">
-        <v>0.9800831147905154</v>
+        <v>1.000920393699964</v>
       </c>
       <c r="M12">
-        <v>1.028980283164024</v>
+        <v>0.9978294294083905</v>
       </c>
       <c r="N12">
-        <v>1.028980283164024</v>
+        <v>0.9978294294083905</v>
       </c>
       <c r="O12">
-        <v>1.036044218472153</v>
+        <v>0.9977100875556998</v>
       </c>
       <c r="P12">
-        <v>1.011397821559386</v>
+        <v>0.9992003819960592</v>
       </c>
       <c r="Q12">
-        <v>1.011397821559386</v>
+        <v>0.9992003819960592</v>
       </c>
       <c r="R12">
-        <v>1.002606590757067</v>
+        <v>0.9998858582898935</v>
       </c>
       <c r="S12">
-        <v>1.002606590757067</v>
+        <v>0.9998858582898935</v>
       </c>
       <c r="T12">
-        <v>0.9993457688994112</v>
+        <v>0.9997224874057694</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9926053784202922</v>
+        <v>1.004068053724976</v>
       </c>
       <c r="D13">
-        <v>1.011857164849821</v>
+        <v>0.9915741584021608</v>
       </c>
       <c r="E13">
-        <v>0.9900919982056045</v>
+        <v>1.007023787141547</v>
       </c>
       <c r="F13">
-        <v>0.9988460005791482</v>
+        <v>1.006212831463629</v>
       </c>
       <c r="G13">
-        <v>1.036008032146925</v>
+        <v>0.9824328020398863</v>
       </c>
       <c r="H13">
-        <v>0.9988460005791482</v>
+        <v>1.006212831463629</v>
       </c>
       <c r="I13">
-        <v>1.036008032146925</v>
+        <v>0.9824328020398863</v>
       </c>
       <c r="J13">
-        <v>0.9900372152319273</v>
+        <v>1.003185431138306</v>
       </c>
       <c r="K13">
-        <v>0.9988460005791482</v>
+        <v>1.006212831463629</v>
       </c>
       <c r="L13">
-        <v>0.9900372152319273</v>
+        <v>1.003185431138306</v>
       </c>
       <c r="M13">
-        <v>1.013022623689426</v>
+        <v>0.9928091165890961</v>
       </c>
       <c r="N13">
-        <v>1.013022623689426</v>
+        <v>0.9928091165890961</v>
       </c>
       <c r="O13">
-        <v>1.012634137409558</v>
+        <v>0.9923974638601177</v>
       </c>
       <c r="P13">
-        <v>1.008297082652667</v>
+        <v>0.9972770215472737</v>
       </c>
       <c r="Q13">
-        <v>1.008297082652667</v>
+        <v>0.9972770215472737</v>
       </c>
       <c r="R13">
-        <v>1.005934312134287</v>
+        <v>0.9995109740263626</v>
       </c>
       <c r="S13">
-        <v>1.005934312134287</v>
+        <v>0.9995109740263626</v>
       </c>
       <c r="T13">
-        <v>1.00324096490562</v>
+        <v>0.9990828439850842</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9237120272003099</v>
+        <v>1.004291405106377</v>
       </c>
       <c r="D14">
-        <v>1.155687464767944</v>
+        <v>0.9911742841340883</v>
       </c>
       <c r="E14">
-        <v>0.8891843764791993</v>
+        <v>1.007510635526194</v>
       </c>
       <c r="F14">
-        <v>0.8700956238553862</v>
+        <v>1.006245076061241</v>
       </c>
       <c r="G14">
-        <v>1.335061443235451</v>
+        <v>0.9813314853983169</v>
       </c>
       <c r="H14">
-        <v>0.8700956238553862</v>
+        <v>1.006245076061241</v>
       </c>
       <c r="I14">
-        <v>1.335061443235451</v>
+        <v>0.9813314853983169</v>
       </c>
       <c r="J14">
-        <v>0.9457763916802239</v>
+        <v>1.003487418391206</v>
       </c>
       <c r="K14">
-        <v>0.8700956238553862</v>
+        <v>1.006245076061241</v>
       </c>
       <c r="L14">
-        <v>0.9457763916802239</v>
+        <v>1.003487418391206</v>
       </c>
       <c r="M14">
-        <v>1.140418917457837</v>
+        <v>0.9924094518947613</v>
       </c>
       <c r="N14">
-        <v>1.140418917457837</v>
+        <v>0.9924094518947613</v>
       </c>
       <c r="O14">
-        <v>1.145508433227873</v>
+        <v>0.9919977293078702</v>
       </c>
       <c r="P14">
-        <v>1.050311152923687</v>
+        <v>0.9970213266169212</v>
       </c>
       <c r="Q14">
-        <v>1.050311152923687</v>
+        <v>0.9970213266169212</v>
       </c>
       <c r="R14">
-        <v>1.005257270656612</v>
+        <v>0.9993272639780011</v>
       </c>
       <c r="S14">
-        <v>1.005257270656612</v>
+        <v>0.9993272639780011</v>
       </c>
       <c r="T14">
-        <v>1.019919554536419</v>
+        <v>0.9990067174362371</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9847977284212999</v>
+        <v>1.001536808815234</v>
       </c>
       <c r="D15">
-        <v>1.04199403505895</v>
+        <v>0.9968519566698526</v>
       </c>
       <c r="E15">
-        <v>0.9161628456874087</v>
+        <v>1.002610200591526</v>
       </c>
       <c r="F15">
-        <v>0.9994301372983533</v>
+        <v>1.002278338983066</v>
       </c>
       <c r="G15">
-        <v>1.042647621188965</v>
+        <v>0.993277425905111</v>
       </c>
       <c r="H15">
-        <v>0.9994301372983533</v>
+        <v>1.002278338983066</v>
       </c>
       <c r="I15">
-        <v>1.042647621188965</v>
+        <v>0.993277425905111</v>
       </c>
       <c r="J15">
-        <v>0.9787761668046858</v>
+        <v>1.001231651062985</v>
       </c>
       <c r="K15">
-        <v>0.9994301372983533</v>
+        <v>1.002278338983066</v>
       </c>
       <c r="L15">
-        <v>0.9787761668046858</v>
+        <v>1.001231651062985</v>
       </c>
       <c r="M15">
-        <v>1.010711893996826</v>
+        <v>0.9972545384840479</v>
       </c>
       <c r="N15">
-        <v>1.010711893996826</v>
+        <v>0.9972545384840479</v>
       </c>
       <c r="O15">
-        <v>1.021139274350867</v>
+        <v>0.9971203445459828</v>
       </c>
       <c r="P15">
-        <v>1.006951308430668</v>
+        <v>0.9989291386503872</v>
       </c>
       <c r="Q15">
-        <v>1.006951308430668</v>
+        <v>0.9989291386503871</v>
       </c>
       <c r="R15">
-        <v>1.005071015647589</v>
+        <v>0.9997664387335568</v>
       </c>
       <c r="S15">
-        <v>1.005071015647589</v>
+        <v>0.9997664387335568</v>
       </c>
       <c r="T15">
-        <v>0.9939680890766104</v>
+        <v>0.9996310636712957</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.029702184392326</v>
+        <v>1.002967167807092</v>
       </c>
       <c r="D16">
-        <v>0.9385628997068554</v>
+        <v>0.9939135626727936</v>
       </c>
       <c r="E16">
-        <v>1.054302675379712</v>
+        <v>1.004957789339782</v>
       </c>
       <c r="F16">
-        <v>1.042052225047815</v>
+        <v>1.004514637560676</v>
       </c>
       <c r="G16">
-        <v>0.8716104044248232</v>
+        <v>0.9870244538872426</v>
       </c>
       <c r="H16">
-        <v>1.042052225047815</v>
+        <v>1.004514637560676</v>
       </c>
       <c r="I16">
-        <v>0.8716104044248232</v>
+        <v>0.9870244538872426</v>
       </c>
       <c r="J16">
-        <v>1.024619856039843</v>
+        <v>1.002330348206932</v>
       </c>
       <c r="K16">
-        <v>1.042052225047815</v>
+        <v>1.004514637560676</v>
       </c>
       <c r="L16">
-        <v>1.024619856039843</v>
+        <v>1.002330348206932</v>
       </c>
       <c r="M16">
-        <v>0.9481151302323332</v>
+        <v>0.9946774010470874</v>
       </c>
       <c r="N16">
-        <v>0.9481151302323332</v>
+        <v>0.9946774010470874</v>
       </c>
       <c r="O16">
-        <v>0.9449310533905072</v>
+        <v>0.9944227882556561</v>
       </c>
       <c r="P16">
-        <v>0.9794274951708272</v>
+        <v>0.9979564798849502</v>
       </c>
       <c r="Q16">
-        <v>0.9794274951708272</v>
+        <v>0.9979564798849502</v>
       </c>
       <c r="R16">
-        <v>0.9950836776400741</v>
+        <v>0.9995960193038815</v>
       </c>
       <c r="S16">
-        <v>0.9950836776400741</v>
+        <v>0.9995960193038815</v>
       </c>
       <c r="T16">
-        <v>0.9934750408318959</v>
+        <v>0.9992846599124197</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.023973737063563</v>
+        <v>1.005670429747623</v>
       </c>
       <c r="D17">
-        <v>0.9498070073142536</v>
+        <v>0.988357793343545</v>
       </c>
       <c r="E17">
-        <v>1.05019090686234</v>
+        <v>1.009890958676625</v>
       </c>
       <c r="F17">
-        <v>1.029306564316697</v>
+        <v>1.008224670241024</v>
       </c>
       <c r="G17">
-        <v>0.898363299957093</v>
+        <v>0.9752789883000812</v>
       </c>
       <c r="H17">
-        <v>1.029306564316697</v>
+        <v>1.008224670241024</v>
       </c>
       <c r="I17">
-        <v>0.898363299957093</v>
+        <v>0.9752789883000812</v>
       </c>
       <c r="J17">
-        <v>1.021779152333759</v>
+        <v>1.004619296664073</v>
       </c>
       <c r="K17">
-        <v>1.029306564316697</v>
+        <v>1.008224670241024</v>
       </c>
       <c r="L17">
-        <v>1.021779152333759</v>
+        <v>1.004619296664073</v>
       </c>
       <c r="M17">
-        <v>0.9600712261454262</v>
+        <v>0.9899491424820773</v>
       </c>
       <c r="N17">
-        <v>0.9600712261454262</v>
+        <v>0.9899491424820773</v>
       </c>
       <c r="O17">
-        <v>0.9566498198683687</v>
+        <v>0.9894186927692332</v>
       </c>
       <c r="P17">
-        <v>0.9831496722025164</v>
+        <v>0.9960409850683929</v>
       </c>
       <c r="Q17">
-        <v>0.9831496722025164</v>
+        <v>0.9960409850683929</v>
       </c>
       <c r="R17">
-        <v>0.9946888952310615</v>
+        <v>0.9990869063615507</v>
       </c>
       <c r="S17">
-        <v>0.9946888952310615</v>
+        <v>0.9990869063615507</v>
       </c>
       <c r="T17">
-        <v>0.995570111307951</v>
+        <v>0.9986736894954952</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.012508279050232</v>
+        <v>1.008300066638466</v>
       </c>
       <c r="D18">
-        <v>0.9723326792750333</v>
+        <v>0.9829492621110728</v>
       </c>
       <c r="E18">
-        <v>1.041583881656735</v>
+        <v>1.014704458875463</v>
       </c>
       <c r="F18">
-        <v>1.004126835476952</v>
+        <v>1.011871323693613</v>
       </c>
       <c r="G18">
-        <v>0.9518123347626537</v>
+        <v>0.9637742632526274</v>
       </c>
       <c r="H18">
-        <v>1.004126835476952</v>
+        <v>1.011871323693613</v>
       </c>
       <c r="I18">
-        <v>0.9518123347626537</v>
+        <v>0.9637742632526274</v>
       </c>
       <c r="J18">
-        <v>1.015957431355831</v>
+        <v>1.006830420053867</v>
       </c>
       <c r="K18">
-        <v>1.004126835476952</v>
+        <v>1.011871323693613</v>
       </c>
       <c r="L18">
-        <v>1.015957431355831</v>
+        <v>1.006830420053867</v>
       </c>
       <c r="M18">
-        <v>0.9838848830592426</v>
+        <v>0.9853023416532471</v>
       </c>
       <c r="N18">
-        <v>0.9838848830592426</v>
+        <v>0.9853023416532471</v>
       </c>
       <c r="O18">
-        <v>0.9800341484645062</v>
+        <v>0.9845179818058557</v>
       </c>
       <c r="P18">
-        <v>0.9906322005318122</v>
+        <v>0.9941586690000358</v>
       </c>
       <c r="Q18">
-        <v>0.9906322005318122</v>
+        <v>0.9941586690000358</v>
       </c>
       <c r="R18">
-        <v>0.9940058592680971</v>
+        <v>0.99858683267343</v>
       </c>
       <c r="S18">
-        <v>0.9940058592680971</v>
+        <v>0.99858683267343</v>
       </c>
       <c r="T18">
-        <v>0.999720240262906</v>
+        <v>0.9980716324375182</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.013941361359556</v>
+        <v>1.000109328809915</v>
       </c>
       <c r="D19">
-        <v>0.9694060630960929</v>
+        <v>0.9997611859504548</v>
       </c>
       <c r="E19">
-        <v>1.049099986675939</v>
+        <v>1.000342081407088</v>
       </c>
       <c r="F19">
-        <v>1.000710254122547</v>
+        <v>1.000046607943644</v>
       </c>
       <c r="G19">
-        <v>0.9465303496957445</v>
+        <v>0.9995740759593511</v>
       </c>
       <c r="H19">
-        <v>1.000710254122547</v>
+        <v>1.000046607943644</v>
       </c>
       <c r="I19">
-        <v>0.9465303496957445</v>
+        <v>0.9995740759593511</v>
       </c>
       <c r="J19">
-        <v>1.019386258495689</v>
+        <v>1.000135138819513</v>
       </c>
       <c r="K19">
-        <v>1.000710254122547</v>
+        <v>1.000046607943644</v>
       </c>
       <c r="L19">
-        <v>1.019386258495689</v>
+        <v>1.000135138819513</v>
       </c>
       <c r="M19">
-        <v>0.9829583040957165</v>
+        <v>0.9998546073894319</v>
       </c>
       <c r="N19">
-        <v>0.9829583040957165</v>
+        <v>0.9998546073894319</v>
       </c>
       <c r="O19">
-        <v>0.9784408904291753</v>
+        <v>0.9998234669097729</v>
       </c>
       <c r="P19">
-        <v>0.9888756207713266</v>
+        <v>0.9999186075741694</v>
       </c>
       <c r="Q19">
-        <v>0.9888756207713266</v>
+        <v>0.9999186075741694</v>
       </c>
       <c r="R19">
-        <v>0.9918342791091318</v>
+        <v>0.9999506076665381</v>
       </c>
       <c r="S19">
-        <v>0.9918342791091318</v>
+        <v>0.9999506076665381</v>
       </c>
       <c r="T19">
-        <v>0.9998457122409278</v>
+        <v>0.999994736481661</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9999715349108756</v>
+        <v>1.000321160197245</v>
       </c>
       <c r="D20">
-        <v>1.000011804180012</v>
+        <v>0.9993033629522952</v>
       </c>
       <c r="E20">
-        <v>1.000667695520432</v>
+        <v>1.000889823532336</v>
       </c>
       <c r="F20">
-        <v>0.9993646409430413</v>
+        <v>1.000242646864936</v>
       </c>
       <c r="G20">
-        <v>1.000301328699251</v>
+        <v>0.9987217705109184</v>
       </c>
       <c r="H20">
-        <v>0.9993646409430413</v>
+        <v>1.000242646864936</v>
       </c>
       <c r="I20">
-        <v>1.000301328699251</v>
+        <v>0.9987217705109184</v>
       </c>
       <c r="J20">
-        <v>1.000221284574636</v>
+        <v>1.000353469241996</v>
       </c>
       <c r="K20">
-        <v>0.9993646409430413</v>
+        <v>1.000242646864936</v>
       </c>
       <c r="L20">
-        <v>1.000221284574636</v>
+        <v>1.000353469241996</v>
       </c>
       <c r="M20">
-        <v>1.000261306636943</v>
+        <v>0.999537619876457</v>
       </c>
       <c r="N20">
-        <v>1.000261306636943</v>
+        <v>0.999537619876457</v>
       </c>
       <c r="O20">
-        <v>1.0001781391513</v>
+        <v>0.9994595342350697</v>
       </c>
       <c r="P20">
-        <v>0.9999624180723093</v>
+        <v>0.9997726288726168</v>
       </c>
       <c r="Q20">
-        <v>0.9999624180723096</v>
+        <v>0.9997726288726168</v>
       </c>
       <c r="R20">
-        <v>0.9998129737899925</v>
+        <v>0.9998901333706967</v>
       </c>
       <c r="S20">
-        <v>0.9998129737899925</v>
+        <v>0.9998901333706967</v>
       </c>
       <c r="T20">
-        <v>1.000089714804708</v>
+        <v>0.9999720388832877</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.000175584650901</v>
+        <v>1.000449878479392</v>
       </c>
       <c r="D21">
-        <v>0.9996953136296278</v>
+        <v>0.9990310968305647</v>
       </c>
       <c r="E21">
-        <v>0.9994981217320993</v>
+        <v>1.001055246763294</v>
       </c>
       <c r="F21">
-        <v>1.000904345709062</v>
+        <v>1.000521371159902</v>
       </c>
       <c r="G21">
-        <v>0.9990476075662951</v>
+        <v>0.9981630260262809</v>
       </c>
       <c r="H21">
-        <v>1.000904345709062</v>
+        <v>1.000521371159902</v>
       </c>
       <c r="I21">
-        <v>0.9990476075662951</v>
+        <v>0.9981630260262809</v>
       </c>
       <c r="J21">
-        <v>0.999875682363654</v>
+        <v>1.000420455870045</v>
       </c>
       <c r="K21">
-        <v>1.000904345709062</v>
+        <v>1.000521371159902</v>
       </c>
       <c r="L21">
-        <v>0.999875682363654</v>
+        <v>1.000420455870045</v>
       </c>
       <c r="M21">
-        <v>0.9994616449649745</v>
+        <v>0.999291740948163</v>
       </c>
       <c r="N21">
-        <v>0.9994616449649745</v>
+        <v>0.999291740948163</v>
       </c>
       <c r="O21">
-        <v>0.999539534519859</v>
+        <v>0.9992048595756303</v>
       </c>
       <c r="P21">
-        <v>0.9999425452130035</v>
+        <v>0.9997016176854094</v>
       </c>
       <c r="Q21">
-        <v>0.9999425452130036</v>
+        <v>0.9997016176854094</v>
       </c>
       <c r="R21">
-        <v>1.000182995337018</v>
+        <v>0.9999065560540327</v>
       </c>
       <c r="S21">
-        <v>1.000182995337018</v>
+        <v>0.9999065560540327</v>
       </c>
       <c r="T21">
-        <v>0.9998661092752732</v>
+        <v>0.9999401791882465</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.000374396447368</v>
+        <v>1.000963406252315</v>
       </c>
       <c r="D22">
-        <v>0.9990947884663997</v>
+        <v>0.9979157617499326</v>
       </c>
       <c r="E22">
-        <v>1.002585563018587</v>
+        <v>1.002493504185552</v>
       </c>
       <c r="F22">
-        <v>0.998985845600207</v>
+        <v>1.000899942899892</v>
       </c>
       <c r="G22">
-        <v>0.9988527087250627</v>
+        <v>0.9961194121295651</v>
       </c>
       <c r="H22">
-        <v>0.998985845600207</v>
+        <v>1.000899942899892</v>
       </c>
       <c r="I22">
-        <v>0.9988527087250627</v>
+        <v>0.9961194121295651</v>
       </c>
       <c r="J22">
-        <v>1.000945816618609</v>
+        <v>1.00098952227564</v>
       </c>
       <c r="K22">
-        <v>0.998985845600207</v>
+        <v>1.000899942899892</v>
       </c>
       <c r="L22">
-        <v>1.000945816618609</v>
+        <v>1.00098952227564</v>
       </c>
       <c r="M22">
-        <v>0.9998992626718357</v>
+        <v>0.9985544672026025</v>
       </c>
       <c r="N22">
-        <v>0.9998992626718357</v>
+        <v>0.9985544672026025</v>
       </c>
       <c r="O22">
-        <v>0.999631104603357</v>
+        <v>0.9983415653850459</v>
       </c>
       <c r="P22">
-        <v>0.9995947903146262</v>
+        <v>0.9993362924350322</v>
       </c>
       <c r="Q22">
-        <v>0.9995947903146262</v>
+        <v>0.9993362924350322</v>
       </c>
       <c r="R22">
-        <v>0.9994425541360213</v>
+        <v>0.9997272050512471</v>
       </c>
       <c r="S22">
-        <v>0.9994425541360213</v>
+        <v>0.9997272050512471</v>
       </c>
       <c r="T22">
-        <v>1.000139853146039</v>
+        <v>0.9998969249154829</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.0016383890987</v>
+      </c>
+      <c r="D23">
+        <v>0.9964836333760886</v>
+      </c>
+      <c r="E23">
+        <v>1.003631947598661</v>
+      </c>
+      <c r="F23">
+        <v>1.002075246017</v>
+      </c>
+      <c r="G23">
+        <v>0.9932685658082703</v>
+      </c>
+      <c r="H23">
+        <v>1.002075246017</v>
+      </c>
+      <c r="I23">
+        <v>0.9932685658082703</v>
+      </c>
+      <c r="J23">
+        <v>1.001458610573902</v>
+      </c>
+      <c r="K23">
+        <v>1.002075246017</v>
+      </c>
+      <c r="L23">
+        <v>1.001458610573902</v>
+      </c>
+      <c r="M23">
+        <v>0.9973635881910863</v>
+      </c>
+      <c r="N23">
+        <v>0.9973635881910863</v>
+      </c>
+      <c r="O23">
+        <v>0.9970702699194204</v>
+      </c>
+      <c r="P23">
+        <v>0.9989341407997242</v>
+      </c>
+      <c r="Q23">
+        <v>0.9989341407997242</v>
+      </c>
+      <c r="R23">
+        <v>0.9997194171040432</v>
+      </c>
+      <c r="S23">
+        <v>0.9997194171040432</v>
+      </c>
+      <c r="T23">
+        <v>0.9997593987454372</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9789606011489488</v>
+      </c>
+      <c r="D24">
+        <v>1.05017208908841</v>
+      </c>
+      <c r="E24">
+        <v>0.9327484584809496</v>
+      </c>
+      <c r="F24">
+        <v>0.9762328983501093</v>
+      </c>
+      <c r="G24">
+        <v>1.077877451537533</v>
+      </c>
+      <c r="H24">
+        <v>0.9762328983501093</v>
+      </c>
+      <c r="I24">
+        <v>1.077877451537533</v>
+      </c>
+      <c r="J24">
+        <v>0.9800831147905154</v>
+      </c>
+      <c r="K24">
+        <v>0.9762328983501093</v>
+      </c>
+      <c r="L24">
+        <v>0.9800831147905154</v>
+      </c>
+      <c r="M24">
+        <v>1.028980283164024</v>
+      </c>
+      <c r="N24">
+        <v>1.028980283164024</v>
+      </c>
+      <c r="O24">
+        <v>1.036044218472153</v>
+      </c>
+      <c r="P24">
+        <v>1.011397821559386</v>
+      </c>
+      <c r="Q24">
+        <v>1.011397821559386</v>
+      </c>
+      <c r="R24">
+        <v>1.002606590757067</v>
+      </c>
+      <c r="S24">
+        <v>1.002606590757067</v>
+      </c>
+      <c r="T24">
+        <v>0.9993457688994112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9926053784202922</v>
+      </c>
+      <c r="D25">
+        <v>1.011857164849821</v>
+      </c>
+      <c r="E25">
+        <v>0.9900919982056045</v>
+      </c>
+      <c r="F25">
+        <v>0.9988460005791482</v>
+      </c>
+      <c r="G25">
+        <v>1.036008032146925</v>
+      </c>
+      <c r="H25">
+        <v>0.9988460005791482</v>
+      </c>
+      <c r="I25">
+        <v>1.036008032146925</v>
+      </c>
+      <c r="J25">
+        <v>0.9900372152319273</v>
+      </c>
+      <c r="K25">
+        <v>0.9988460005791482</v>
+      </c>
+      <c r="L25">
+        <v>0.9900372152319273</v>
+      </c>
+      <c r="M25">
+        <v>1.013022623689426</v>
+      </c>
+      <c r="N25">
+        <v>1.013022623689426</v>
+      </c>
+      <c r="O25">
+        <v>1.012634137409558</v>
+      </c>
+      <c r="P25">
+        <v>1.008297082652667</v>
+      </c>
+      <c r="Q25">
+        <v>1.008297082652667</v>
+      </c>
+      <c r="R25">
+        <v>1.005934312134287</v>
+      </c>
+      <c r="S25">
+        <v>1.005934312134287</v>
+      </c>
+      <c r="T25">
+        <v>1.00324096490562</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9237120272003099</v>
+      </c>
+      <c r="D26">
+        <v>1.155687464767944</v>
+      </c>
+      <c r="E26">
+        <v>0.8891843764791993</v>
+      </c>
+      <c r="F26">
+        <v>0.8700956238553862</v>
+      </c>
+      <c r="G26">
+        <v>1.335061443235451</v>
+      </c>
+      <c r="H26">
+        <v>0.8700956238553862</v>
+      </c>
+      <c r="I26">
+        <v>1.335061443235451</v>
+      </c>
+      <c r="J26">
+        <v>0.9457763916802239</v>
+      </c>
+      <c r="K26">
+        <v>0.8700956238553862</v>
+      </c>
+      <c r="L26">
+        <v>0.9457763916802239</v>
+      </c>
+      <c r="M26">
+        <v>1.140418917457837</v>
+      </c>
+      <c r="N26">
+        <v>1.140418917457837</v>
+      </c>
+      <c r="O26">
+        <v>1.145508433227873</v>
+      </c>
+      <c r="P26">
+        <v>1.050311152923687</v>
+      </c>
+      <c r="Q26">
+        <v>1.050311152923687</v>
+      </c>
+      <c r="R26">
+        <v>1.005257270656612</v>
+      </c>
+      <c r="S26">
+        <v>1.005257270656612</v>
+      </c>
+      <c r="T26">
+        <v>1.019919554536419</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9847977284212999</v>
+      </c>
+      <c r="D27">
+        <v>1.04199403505895</v>
+      </c>
+      <c r="E27">
+        <v>0.9161628456874087</v>
+      </c>
+      <c r="F27">
+        <v>0.9994301372983533</v>
+      </c>
+      <c r="G27">
+        <v>1.042647621188965</v>
+      </c>
+      <c r="H27">
+        <v>0.9994301372983533</v>
+      </c>
+      <c r="I27">
+        <v>1.042647621188965</v>
+      </c>
+      <c r="J27">
+        <v>0.9787761668046858</v>
+      </c>
+      <c r="K27">
+        <v>0.9994301372983533</v>
+      </c>
+      <c r="L27">
+        <v>0.9787761668046858</v>
+      </c>
+      <c r="M27">
+        <v>1.010711893996826</v>
+      </c>
+      <c r="N27">
+        <v>1.010711893996826</v>
+      </c>
+      <c r="O27">
+        <v>1.021139274350867</v>
+      </c>
+      <c r="P27">
+        <v>1.006951308430668</v>
+      </c>
+      <c r="Q27">
+        <v>1.006951308430668</v>
+      </c>
+      <c r="R27">
+        <v>1.005071015647589</v>
+      </c>
+      <c r="S27">
+        <v>1.005071015647589</v>
+      </c>
+      <c r="T27">
+        <v>0.9939680890766104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.029702184392326</v>
+      </c>
+      <c r="D28">
+        <v>0.9385628997068554</v>
+      </c>
+      <c r="E28">
+        <v>1.054302675379712</v>
+      </c>
+      <c r="F28">
+        <v>1.042052225047815</v>
+      </c>
+      <c r="G28">
+        <v>0.8716104044248232</v>
+      </c>
+      <c r="H28">
+        <v>1.042052225047815</v>
+      </c>
+      <c r="I28">
+        <v>0.8716104044248232</v>
+      </c>
+      <c r="J28">
+        <v>1.024619856039843</v>
+      </c>
+      <c r="K28">
+        <v>1.042052225047815</v>
+      </c>
+      <c r="L28">
+        <v>1.024619856039843</v>
+      </c>
+      <c r="M28">
+        <v>0.9481151302323332</v>
+      </c>
+      <c r="N28">
+        <v>0.9481151302323332</v>
+      </c>
+      <c r="O28">
+        <v>0.9449310533905072</v>
+      </c>
+      <c r="P28">
+        <v>0.9794274951708272</v>
+      </c>
+      <c r="Q28">
+        <v>0.9794274951708272</v>
+      </c>
+      <c r="R28">
+        <v>0.9950836776400741</v>
+      </c>
+      <c r="S28">
+        <v>0.9950836776400741</v>
+      </c>
+      <c r="T28">
+        <v>0.9934750408318959</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.023973737063563</v>
+      </c>
+      <c r="D29">
+        <v>0.9498070073142536</v>
+      </c>
+      <c r="E29">
+        <v>1.05019090686234</v>
+      </c>
+      <c r="F29">
+        <v>1.029306564316697</v>
+      </c>
+      <c r="G29">
+        <v>0.898363299957093</v>
+      </c>
+      <c r="H29">
+        <v>1.029306564316697</v>
+      </c>
+      <c r="I29">
+        <v>0.898363299957093</v>
+      </c>
+      <c r="J29">
+        <v>1.021779152333759</v>
+      </c>
+      <c r="K29">
+        <v>1.029306564316697</v>
+      </c>
+      <c r="L29">
+        <v>1.021779152333759</v>
+      </c>
+      <c r="M29">
+        <v>0.9600712261454262</v>
+      </c>
+      <c r="N29">
+        <v>0.9600712261454262</v>
+      </c>
+      <c r="O29">
+        <v>0.9566498198683687</v>
+      </c>
+      <c r="P29">
+        <v>0.9831496722025164</v>
+      </c>
+      <c r="Q29">
+        <v>0.9831496722025164</v>
+      </c>
+      <c r="R29">
+        <v>0.9946888952310615</v>
+      </c>
+      <c r="S29">
+        <v>0.9946888952310615</v>
+      </c>
+      <c r="T29">
+        <v>0.995570111307951</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.012508279050232</v>
+      </c>
+      <c r="D30">
+        <v>0.9723326792750333</v>
+      </c>
+      <c r="E30">
+        <v>1.041583881656735</v>
+      </c>
+      <c r="F30">
+        <v>1.004126835476952</v>
+      </c>
+      <c r="G30">
+        <v>0.9518123347626537</v>
+      </c>
+      <c r="H30">
+        <v>1.004126835476952</v>
+      </c>
+      <c r="I30">
+        <v>0.9518123347626537</v>
+      </c>
+      <c r="J30">
+        <v>1.015957431355831</v>
+      </c>
+      <c r="K30">
+        <v>1.004126835476952</v>
+      </c>
+      <c r="L30">
+        <v>1.015957431355831</v>
+      </c>
+      <c r="M30">
+        <v>0.9838848830592426</v>
+      </c>
+      <c r="N30">
+        <v>0.9838848830592426</v>
+      </c>
+      <c r="O30">
+        <v>0.9800341484645062</v>
+      </c>
+      <c r="P30">
+        <v>0.9906322005318122</v>
+      </c>
+      <c r="Q30">
+        <v>0.9906322005318122</v>
+      </c>
+      <c r="R30">
+        <v>0.9940058592680971</v>
+      </c>
+      <c r="S30">
+        <v>0.9940058592680971</v>
+      </c>
+      <c r="T30">
+        <v>0.999720240262906</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.013941361359556</v>
+      </c>
+      <c r="D31">
+        <v>0.9694060630960929</v>
+      </c>
+      <c r="E31">
+        <v>1.049099986675939</v>
+      </c>
+      <c r="F31">
+        <v>1.000710254122547</v>
+      </c>
+      <c r="G31">
+        <v>0.9465303496957445</v>
+      </c>
+      <c r="H31">
+        <v>1.000710254122547</v>
+      </c>
+      <c r="I31">
+        <v>0.9465303496957445</v>
+      </c>
+      <c r="J31">
+        <v>1.019386258495689</v>
+      </c>
+      <c r="K31">
+        <v>1.000710254122547</v>
+      </c>
+      <c r="L31">
+        <v>1.019386258495689</v>
+      </c>
+      <c r="M31">
+        <v>0.9829583040957165</v>
+      </c>
+      <c r="N31">
+        <v>0.9829583040957165</v>
+      </c>
+      <c r="O31">
+        <v>0.9784408904291753</v>
+      </c>
+      <c r="P31">
+        <v>0.9888756207713266</v>
+      </c>
+      <c r="Q31">
+        <v>0.9888756207713266</v>
+      </c>
+      <c r="R31">
+        <v>0.9918342791091318</v>
+      </c>
+      <c r="S31">
+        <v>0.9918342791091318</v>
+      </c>
+      <c r="T31">
+        <v>0.9998457122409278</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.036389898630137</v>
+      </c>
+      <c r="D32">
+        <v>0.9253719497260274</v>
+      </c>
+      <c r="E32">
+        <v>1.057229300821918</v>
+      </c>
+      <c r="F32">
+        <v>1.059140436986302</v>
+      </c>
+      <c r="G32">
+        <v>0.8402270360273973</v>
+      </c>
+      <c r="H32">
+        <v>1.059140436986302</v>
+      </c>
+      <c r="I32">
+        <v>0.8402270360273973</v>
+      </c>
+      <c r="J32">
+        <v>1.027027528904109</v>
+      </c>
+      <c r="K32">
+        <v>1.059140436986302</v>
+      </c>
+      <c r="L32">
+        <v>1.027027528904109</v>
+      </c>
+      <c r="M32">
+        <v>0.9336272824657533</v>
+      </c>
+      <c r="N32">
+        <v>0.9336272824657533</v>
+      </c>
+      <c r="O32">
+        <v>0.9308755048858447</v>
+      </c>
+      <c r="P32">
+        <v>0.9754650006392694</v>
+      </c>
+      <c r="Q32">
+        <v>0.9754650006392694</v>
+      </c>
+      <c r="R32">
+        <v>0.9963838597260275</v>
+      </c>
+      <c r="S32">
+        <v>0.9963838597260275</v>
+      </c>
+      <c r="T32">
+        <v>0.9908976918493151</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.032922055789474</v>
+      </c>
+      <c r="D33">
+        <v>0.9144072342105264</v>
+      </c>
+      <c r="E33">
+        <v>1.203647928421053</v>
+      </c>
+      <c r="F33">
+        <v>0.9584451015789475</v>
+      </c>
+      <c r="G33">
+        <v>0.9028523952631577</v>
+      </c>
+      <c r="H33">
+        <v>0.9584451015789475</v>
+      </c>
+      <c r="I33">
+        <v>0.9028523952631577</v>
+      </c>
+      <c r="J33">
+        <v>1.063570988421053</v>
+      </c>
+      <c r="K33">
+        <v>0.9584451015789475</v>
+      </c>
+      <c r="L33">
+        <v>1.063570988421053</v>
+      </c>
+      <c r="M33">
+        <v>0.9832116918421052</v>
+      </c>
+      <c r="N33">
+        <v>0.9832116918421052</v>
+      </c>
+      <c r="O33">
+        <v>0.9602768726315789</v>
+      </c>
+      <c r="P33">
+        <v>0.9749561617543859</v>
+      </c>
+      <c r="Q33">
+        <v>0.9749561617543859</v>
+      </c>
+      <c r="R33">
+        <v>0.9708283967105262</v>
+      </c>
+      <c r="S33">
+        <v>0.9708283967105262</v>
+      </c>
+      <c r="T33">
+        <v>1.012640950614035</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.093924742105263</v>
+      </c>
+      <c r="D34">
+        <v>0.8020069699999999</v>
+      </c>
+      <c r="E34">
+        <v>1.13878526</v>
+      </c>
+      <c r="F34">
+        <v>1.179875116842106</v>
+      </c>
+      <c r="G34">
+        <v>0.5981553399999998</v>
+      </c>
+      <c r="H34">
+        <v>1.179875116842106</v>
+      </c>
+      <c r="I34">
+        <v>0.5981553399999998</v>
+      </c>
+      <c r="J34">
+        <v>1.058554216842105</v>
+      </c>
+      <c r="K34">
+        <v>1.179875116842106</v>
+      </c>
+      <c r="L34">
+        <v>1.058554216842105</v>
+      </c>
+      <c r="M34">
+        <v>0.8283547784210525</v>
+      </c>
+      <c r="N34">
+        <v>0.8283547784210525</v>
+      </c>
+      <c r="O34">
+        <v>0.8195721756140349</v>
+      </c>
+      <c r="P34">
+        <v>0.9455282245614036</v>
+      </c>
+      <c r="Q34">
+        <v>0.9455282245614036</v>
+      </c>
+      <c r="R34">
+        <v>1.004114947631579</v>
+      </c>
+      <c r="S34">
+        <v>1.004114947631579</v>
+      </c>
+      <c r="T34">
+        <v>0.9785502742982456</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>1.04926171772109</v>
+      </c>
+      <c r="D35">
+        <v>0.8916512474684229</v>
+      </c>
+      <c r="E35">
+        <v>1.178462022008578</v>
+      </c>
+      <c r="F35">
+        <v>0.9975603262270364</v>
+      </c>
+      <c r="G35">
+        <v>0.8134353594606664</v>
+      </c>
+      <c r="H35">
+        <v>0.9975603262270364</v>
+      </c>
+      <c r="I35">
+        <v>0.8134353594606664</v>
+      </c>
+      <c r="J35">
+        <v>1.070537972377412</v>
+      </c>
+      <c r="K35">
+        <v>0.9975603262270364</v>
+      </c>
+      <c r="L35">
+        <v>1.070537972377412</v>
+      </c>
+      <c r="M35">
+        <v>0.941986665919039</v>
+      </c>
+      <c r="N35">
+        <v>0.941986665919039</v>
+      </c>
+      <c r="O35">
+        <v>0.9252081931021671</v>
+      </c>
+      <c r="P35">
+        <v>0.9605112193550381</v>
+      </c>
+      <c r="Q35">
+        <v>0.9605112193550381</v>
+      </c>
+      <c r="R35">
+        <v>0.9697734960730378</v>
+      </c>
+      <c r="S35">
+        <v>0.9697734960730378</v>
+      </c>
+      <c r="T35">
+        <v>1.000151440877201</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.9999715349108756</v>
+      </c>
+      <c r="D36">
+        <v>1.000011804180012</v>
+      </c>
+      <c r="E36">
+        <v>1.000667695520432</v>
+      </c>
+      <c r="F36">
+        <v>0.9993646409430413</v>
+      </c>
+      <c r="G36">
+        <v>1.000301328699251</v>
+      </c>
+      <c r="H36">
+        <v>0.9993646409430413</v>
+      </c>
+      <c r="I36">
+        <v>1.000301328699251</v>
+      </c>
+      <c r="J36">
+        <v>1.000221284574636</v>
+      </c>
+      <c r="K36">
+        <v>0.9993646409430413</v>
+      </c>
+      <c r="L36">
+        <v>1.000221284574636</v>
+      </c>
+      <c r="M36">
+        <v>1.000261306636943</v>
+      </c>
+      <c r="N36">
+        <v>1.000261306636943</v>
+      </c>
+      <c r="O36">
+        <v>1.0001781391513</v>
+      </c>
+      <c r="P36">
+        <v>0.9999624180723093</v>
+      </c>
+      <c r="Q36">
+        <v>0.9999624180723096</v>
+      </c>
+      <c r="R36">
+        <v>0.9998129737899925</v>
+      </c>
+      <c r="S36">
+        <v>0.9998129737899925</v>
+      </c>
+      <c r="T36">
+        <v>1.000089714804708</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.000175584650901</v>
+      </c>
+      <c r="D37">
+        <v>0.9996953136296278</v>
+      </c>
+      <c r="E37">
+        <v>0.9994981217320993</v>
+      </c>
+      <c r="F37">
+        <v>1.000904345709062</v>
+      </c>
+      <c r="G37">
+        <v>0.9990476075662951</v>
+      </c>
+      <c r="H37">
+        <v>1.000904345709062</v>
+      </c>
+      <c r="I37">
+        <v>0.9990476075662951</v>
+      </c>
+      <c r="J37">
+        <v>0.999875682363654</v>
+      </c>
+      <c r="K37">
+        <v>1.000904345709062</v>
+      </c>
+      <c r="L37">
+        <v>0.999875682363654</v>
+      </c>
+      <c r="M37">
+        <v>0.9994616449649745</v>
+      </c>
+      <c r="N37">
+        <v>0.9994616449649745</v>
+      </c>
+      <c r="O37">
+        <v>0.999539534519859</v>
+      </c>
+      <c r="P37">
+        <v>0.9999425452130035</v>
+      </c>
+      <c r="Q37">
+        <v>0.9999425452130036</v>
+      </c>
+      <c r="R37">
+        <v>1.000182995337018</v>
+      </c>
+      <c r="S37">
+        <v>1.000182995337018</v>
+      </c>
+      <c r="T37">
+        <v>0.9998661092752732</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.000374396447368</v>
+      </c>
+      <c r="D38">
+        <v>0.9990947884663997</v>
+      </c>
+      <c r="E38">
+        <v>1.002585563018587</v>
+      </c>
+      <c r="F38">
+        <v>0.998985845600207</v>
+      </c>
+      <c r="G38">
+        <v>0.9988527087250627</v>
+      </c>
+      <c r="H38">
+        <v>0.998985845600207</v>
+      </c>
+      <c r="I38">
+        <v>0.9988527087250627</v>
+      </c>
+      <c r="J38">
+        <v>1.000945816618609</v>
+      </c>
+      <c r="K38">
+        <v>0.998985845600207</v>
+      </c>
+      <c r="L38">
+        <v>1.000945816618609</v>
+      </c>
+      <c r="M38">
+        <v>0.9998992626718357</v>
+      </c>
+      <c r="N38">
+        <v>0.9998992626718357</v>
+      </c>
+      <c r="O38">
+        <v>0.999631104603357</v>
+      </c>
+      <c r="P38">
+        <v>0.9995947903146262</v>
+      </c>
+      <c r="Q38">
+        <v>0.9995947903146262</v>
+      </c>
+      <c r="R38">
+        <v>0.9994425541360213</v>
+      </c>
+      <c r="S38">
+        <v>0.9994425541360213</v>
+      </c>
+      <c r="T38">
+        <v>1.000139853146039</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.000755405381218</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.9979894349027767</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.008480993758392</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.9951654973228152</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>0.998412141883855</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.9951654973228152</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.998412141883855</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.003055780826184</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.9951654973228152</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.003055780826184</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.000733961355019</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.000733961355019</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.9998191192042718</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9988778066776179</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.9988778066776179</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9979497293389172</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9979497293389172</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.00064320901254</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.029860053243006</v>
+      </c>
+      <c r="D40">
+        <v>0.9306570305502204</v>
+      </c>
+      <c r="E40">
+        <v>1.115163487510936</v>
+      </c>
+      <c r="F40">
+        <v>1.005755844614242</v>
+      </c>
+      <c r="G40">
+        <v>0.8902581062539257</v>
+      </c>
+      <c r="H40">
+        <v>1.005755844614242</v>
+      </c>
+      <c r="I40">
+        <v>0.8902581062539257</v>
+      </c>
+      <c r="J40">
+        <v>1.039779476010362</v>
+      </c>
+      <c r="K40">
+        <v>1.005755844614242</v>
+      </c>
+      <c r="L40">
+        <v>1.039779476010362</v>
+      </c>
+      <c r="M40">
+        <v>0.9650187911321436</v>
+      </c>
+      <c r="N40">
+        <v>0.9650187911321436</v>
+      </c>
+      <c r="O40">
+        <v>0.9535648709381692</v>
+      </c>
+      <c r="P40">
+        <v>0.9785978089595098</v>
+      </c>
+      <c r="Q40">
+        <v>0.9785978089595098</v>
+      </c>
+      <c r="R40">
+        <v>0.9853873178731928</v>
+      </c>
+      <c r="S40">
+        <v>0.9853873178731928</v>
+      </c>
+      <c r="T40">
+        <v>1.001912333030449</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9999724438596437</v>
+      </c>
+      <c r="D41">
+        <v>1.000589384560975</v>
+      </c>
+      <c r="E41">
+        <v>0.9952254692658541</v>
+      </c>
+      <c r="F41">
+        <v>1.003014973198648</v>
+      </c>
+      <c r="G41">
+        <v>0.9987145660546082</v>
+      </c>
+      <c r="H41">
+        <v>1.003014973198648</v>
+      </c>
+      <c r="I41">
+        <v>0.9987145660546082</v>
+      </c>
+      <c r="J41">
+        <v>0.9987203737373355</v>
+      </c>
+      <c r="K41">
+        <v>1.003014973198648</v>
+      </c>
+      <c r="L41">
+        <v>0.9987203737373355</v>
+      </c>
+      <c r="M41">
+        <v>0.9987174698959718</v>
+      </c>
+      <c r="N41">
+        <v>0.9987174698959718</v>
+      </c>
+      <c r="O41">
+        <v>0.9993414414509729</v>
+      </c>
+      <c r="P41">
+        <v>1.000149970996864</v>
+      </c>
+      <c r="Q41">
+        <v>1.000149970996864</v>
+      </c>
+      <c r="R41">
+        <v>1.00086622154731</v>
+      </c>
+      <c r="S41">
+        <v>1.00086622154731</v>
+      </c>
+      <c r="T41">
+        <v>0.9993728684461775</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.029673683720395</v>
+      </c>
+      <c r="D42">
+        <v>0.9306648119927345</v>
+      </c>
+      <c r="E42">
+        <v>1.117901753804153</v>
+      </c>
+      <c r="F42">
+        <v>1.003605268921743</v>
+      </c>
+      <c r="G42">
+        <v>0.8920417575286129</v>
+      </c>
+      <c r="H42">
+        <v>1.003605268921743</v>
+      </c>
+      <c r="I42">
+        <v>0.8920417575286129</v>
+      </c>
+      <c r="J42">
+        <v>1.040401426793351</v>
+      </c>
+      <c r="K42">
+        <v>1.003605268921743</v>
+      </c>
+      <c r="L42">
+        <v>1.040401426793351</v>
+      </c>
+      <c r="M42">
+        <v>0.9662215921609818</v>
+      </c>
+      <c r="N42">
+        <v>0.9662215921609818</v>
+      </c>
+      <c r="O42">
+        <v>0.9543693321048994</v>
+      </c>
+      <c r="P42">
+        <v>0.9786828177479022</v>
+      </c>
+      <c r="Q42">
+        <v>0.9786828177479022</v>
+      </c>
+      <c r="R42">
+        <v>0.9849134305413624</v>
+      </c>
+      <c r="S42">
+        <v>0.9849134305413624</v>
+      </c>
+      <c r="T42">
+        <v>1.002381450460165</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha3F-HW25.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha3F-HW25.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,22 +85,28 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -76,22 +115,13 @@
     <t>[2, 0, 0]</t>
   </si>
   <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
     <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,68 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -612,121 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -734,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.002278338983066</v>
+        <v>1.000321160197245</v>
       </c>
       <c r="D3">
-        <v>0.993277425905111</v>
+        <v>0.9993033629522952</v>
       </c>
       <c r="E3">
-        <v>1.001231651062985</v>
+        <v>1.000889823532336</v>
       </c>
       <c r="F3">
-        <v>1.002278338983066</v>
+        <v>1.000242646864936</v>
       </c>
       <c r="G3">
-        <v>1.002610200591526</v>
+        <v>0.9987217705109184</v>
       </c>
       <c r="H3">
-        <v>0.9968519566698526</v>
+        <v>1.000242646864936</v>
       </c>
       <c r="I3">
-        <v>1.001536808815234</v>
+        <v>0.9987217705109184</v>
       </c>
       <c r="J3">
-        <v>0.993277425905111</v>
+        <v>1.000353469241996</v>
       </c>
       <c r="K3">
-        <v>1.002278338983066</v>
+        <v>1.000242646864936</v>
       </c>
       <c r="L3">
-        <v>1.001231651062985</v>
+        <v>1.000353469241996</v>
       </c>
       <c r="M3">
-        <v>0.9972545384840479</v>
+        <v>0.999537619876457</v>
       </c>
       <c r="N3">
-        <v>0.9972545384840479</v>
+        <v>0.999537619876457</v>
       </c>
       <c r="O3">
-        <v>0.9971203445459828</v>
+        <v>0.9994595342350697</v>
       </c>
       <c r="P3">
-        <v>0.9989291386503872</v>
+        <v>0.9997726288726168</v>
       </c>
       <c r="Q3">
-        <v>0.9989291386503871</v>
+        <v>0.9997726288726168</v>
       </c>
       <c r="R3">
-        <v>0.9997664387335568</v>
+        <v>0.9998901333706967</v>
       </c>
       <c r="S3">
-        <v>0.9997664387335568</v>
+        <v>0.9998901333706967</v>
       </c>
       <c r="T3">
-        <v>0.9996310636712957</v>
-      </c>
-    </row>
-    <row r="4" spans="1:40">
+        <v>0.9999720388832877</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -796,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.004514637560676</v>
+        <v>1.029860053243006</v>
       </c>
       <c r="D4">
-        <v>0.9870244538872426</v>
+        <v>0.9306570305502204</v>
       </c>
       <c r="E4">
-        <v>1.002330348206932</v>
+        <v>1.115163487510936</v>
       </c>
       <c r="F4">
-        <v>1.004514637560676</v>
+        <v>1.005755844614242</v>
       </c>
       <c r="G4">
-        <v>1.004957789339782</v>
+        <v>0.8902581062539257</v>
       </c>
       <c r="H4">
-        <v>0.9939135626727936</v>
+        <v>1.005755844614242</v>
       </c>
       <c r="I4">
-        <v>1.002967167807092</v>
+        <v>0.8902581062539257</v>
       </c>
       <c r="J4">
-        <v>0.9870244538872426</v>
+        <v>1.039779476010362</v>
       </c>
       <c r="K4">
-        <v>1.004514637560676</v>
+        <v>1.005755844614242</v>
       </c>
       <c r="L4">
-        <v>1.002330348206932</v>
+        <v>1.039779476010362</v>
       </c>
       <c r="M4">
-        <v>0.9946774010470872</v>
+        <v>0.9650187911321436</v>
       </c>
       <c r="N4">
-        <v>0.9946774010470872</v>
+        <v>0.9650187911321436</v>
       </c>
       <c r="O4">
-        <v>0.994422788255656</v>
+        <v>0.9535648709381692</v>
       </c>
       <c r="P4">
-        <v>0.9979564798849502</v>
+        <v>0.9785978089595098</v>
       </c>
       <c r="Q4">
-        <v>0.9979564798849502</v>
+        <v>0.9785978089595098</v>
       </c>
       <c r="R4">
-        <v>0.9995960193038815</v>
+        <v>0.9853873178731928</v>
       </c>
       <c r="S4">
-        <v>0.9995960193038815</v>
+        <v>0.9853873178731928</v>
       </c>
       <c r="T4">
-        <v>0.9992846599124197</v>
-      </c>
-    </row>
-    <row r="5" spans="1:40">
+        <v>1.001912333030449</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -858,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.008224670241024</v>
+        <v>1.01583789538905</v>
       </c>
       <c r="D5">
-        <v>0.9752789883000811</v>
+        <v>0.9652271944092247</v>
       </c>
       <c r="E5">
-        <v>1.004619296664073</v>
+        <v>1.050289408804033</v>
       </c>
       <c r="F5">
-        <v>1.008224670241024</v>
+        <v>1.006764224257925</v>
       </c>
       <c r="G5">
-        <v>1.009890958676625</v>
+        <v>0.9383261708573483</v>
       </c>
       <c r="H5">
-        <v>0.988357793343545</v>
+        <v>1.006764224257925</v>
       </c>
       <c r="I5">
-        <v>1.005670429747623</v>
+        <v>0.9383261708573483</v>
       </c>
       <c r="J5">
-        <v>0.9752789883000811</v>
+        <v>1.019571911945244</v>
       </c>
       <c r="K5">
-        <v>1.008224670241024</v>
+        <v>1.006764224257925</v>
       </c>
       <c r="L5">
-        <v>1.004619296664073</v>
+        <v>1.019571911945244</v>
       </c>
       <c r="M5">
-        <v>0.9899491424820772</v>
+        <v>0.9789490414012962</v>
       </c>
       <c r="N5">
-        <v>0.9899491424820772</v>
+        <v>0.9789490414012962</v>
       </c>
       <c r="O5">
-        <v>0.9894186927692331</v>
+        <v>0.974375092403939</v>
       </c>
       <c r="P5">
-        <v>0.9960409850683929</v>
+        <v>0.9882207690201725</v>
       </c>
       <c r="Q5">
-        <v>0.9960409850683929</v>
+        <v>0.9882207690201725</v>
       </c>
       <c r="R5">
-        <v>0.9990869063615507</v>
+        <v>0.9928566328296107</v>
       </c>
       <c r="S5">
-        <v>0.9990869063615507</v>
+        <v>0.9928566328296107</v>
       </c>
       <c r="T5">
-        <v>0.9986736894954952</v>
-      </c>
-    </row>
-    <row r="6" spans="1:40">
+        <v>0.9993361342771375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -920,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.011871323693613</v>
+        <v>1.04926171772109</v>
       </c>
       <c r="D6">
-        <v>0.9637742632526274</v>
+        <v>0.8916512474684229</v>
       </c>
       <c r="E6">
-        <v>1.006830420053867</v>
+        <v>1.178462022008578</v>
       </c>
       <c r="F6">
-        <v>1.011871323693613</v>
+        <v>0.9975603262270364</v>
       </c>
       <c r="G6">
-        <v>1.014704458875463</v>
+        <v>0.8134353594606664</v>
       </c>
       <c r="H6">
-        <v>0.9829492621110728</v>
+        <v>0.9975603262270364</v>
       </c>
       <c r="I6">
-        <v>1.008300066638466</v>
+        <v>0.8134353594606664</v>
       </c>
       <c r="J6">
-        <v>0.9637742632526274</v>
+        <v>1.070537972377412</v>
       </c>
       <c r="K6">
-        <v>1.011871323693613</v>
+        <v>0.9975603262270364</v>
       </c>
       <c r="L6">
-        <v>1.006830420053867</v>
+        <v>1.070537972377412</v>
       </c>
       <c r="M6">
-        <v>0.9853023416532471</v>
+        <v>0.941986665919039</v>
       </c>
       <c r="N6">
-        <v>0.9853023416532471</v>
+        <v>0.941986665919039</v>
       </c>
       <c r="O6">
-        <v>0.9845179818058557</v>
+        <v>0.9252081931021671</v>
       </c>
       <c r="P6">
-        <v>0.9941586690000358</v>
+        <v>0.9605112193550381</v>
       </c>
       <c r="Q6">
-        <v>0.9941586690000358</v>
+        <v>0.9605112193550381</v>
       </c>
       <c r="R6">
-        <v>0.99858683267343</v>
+        <v>0.9697734960730378</v>
       </c>
       <c r="S6">
-        <v>0.99858683267343</v>
+        <v>0.9697734960730378</v>
       </c>
       <c r="T6">
-        <v>0.9980716324375182</v>
-      </c>
-    </row>
-    <row r="7" spans="1:40">
+        <v>1.000151440877201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -982,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000046607943644</v>
+        <v>1.002023901731235</v>
       </c>
       <c r="D7">
-        <v>0.9995740759593508</v>
+        <v>0.9958271379633181</v>
       </c>
       <c r="E7">
-        <v>1.000135138819513</v>
+        <v>1.00294605781747</v>
       </c>
       <c r="F7">
-        <v>1.000046607943644</v>
+        <v>1.003615148924999</v>
       </c>
       <c r="G7">
-        <v>1.000342081407088</v>
+        <v>0.9911263220042859</v>
       </c>
       <c r="H7">
-        <v>0.9997611859504546</v>
+        <v>1.003615148924999</v>
       </c>
       <c r="I7">
-        <v>1.000109328809915</v>
+        <v>0.9911263220042859</v>
       </c>
       <c r="J7">
-        <v>0.9995740759593508</v>
+        <v>1.001369065859894</v>
       </c>
       <c r="K7">
-        <v>1.000046607943644</v>
+        <v>1.003615148924999</v>
       </c>
       <c r="L7">
-        <v>1.000135138819513</v>
+        <v>1.001369065859894</v>
       </c>
       <c r="M7">
-        <v>0.9998546073894318</v>
+        <v>0.9962476939320899</v>
       </c>
       <c r="N7">
-        <v>0.9998546073894318</v>
+        <v>0.9962476939320899</v>
       </c>
       <c r="O7">
-        <v>0.9998234669097728</v>
+        <v>0.9961075086091661</v>
       </c>
       <c r="P7">
-        <v>0.9999186075741692</v>
+        <v>0.9987035122630598</v>
       </c>
       <c r="Q7">
-        <v>0.9999186075741692</v>
+        <v>0.9987035122630598</v>
       </c>
       <c r="R7">
-        <v>0.9999506076665379</v>
+        <v>0.9999314214285446</v>
       </c>
       <c r="S7">
-        <v>0.9999506076665379</v>
+        <v>0.9999314214285446</v>
       </c>
       <c r="T7">
-        <v>0.9999947364816609</v>
-      </c>
-    </row>
-    <row r="8" spans="1:40">
+        <v>0.999484605716867</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1044,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000242646864936</v>
+        <v>1.000175584650901</v>
       </c>
       <c r="D8">
-        <v>0.9987217705109193</v>
+        <v>0.9996953136296278</v>
       </c>
       <c r="E8">
-        <v>1.000353469241996</v>
+        <v>0.9994981217320993</v>
       </c>
       <c r="F8">
-        <v>1.000242646864936</v>
+        <v>1.000904345709062</v>
       </c>
       <c r="G8">
-        <v>1.000889823532335</v>
+        <v>0.9990476075662951</v>
       </c>
       <c r="H8">
-        <v>0.9993033629522952</v>
+        <v>1.000904345709062</v>
       </c>
       <c r="I8">
-        <v>1.000321160197245</v>
+        <v>0.9990476075662951</v>
       </c>
       <c r="J8">
-        <v>0.9987217705109193</v>
+        <v>0.999875682363654</v>
       </c>
       <c r="K8">
-        <v>1.000242646864936</v>
+        <v>1.000904345709062</v>
       </c>
       <c r="L8">
-        <v>1.000353469241996</v>
+        <v>0.999875682363654</v>
       </c>
       <c r="M8">
-        <v>0.9995376198764574</v>
+        <v>0.9994616449649745</v>
       </c>
       <c r="N8">
-        <v>0.9995376198764574</v>
+        <v>0.9994616449649745</v>
       </c>
       <c r="O8">
-        <v>0.9994595342350699</v>
+        <v>0.999539534519859</v>
       </c>
       <c r="P8">
-        <v>0.9997726288726169</v>
+        <v>0.9999425452130035</v>
       </c>
       <c r="Q8">
-        <v>0.9997726288726169</v>
+        <v>0.9999425452130036</v>
       </c>
       <c r="R8">
-        <v>0.9998901333706967</v>
+        <v>1.000182995337018</v>
       </c>
       <c r="S8">
-        <v>0.9998901333706967</v>
+        <v>1.000182995337018</v>
       </c>
       <c r="T8">
-        <v>0.9999720388832877</v>
-      </c>
-    </row>
-    <row r="9" spans="1:40">
+        <v>0.9998661092752732</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1106,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000521371159902</v>
+        <v>1.002967167807092</v>
       </c>
       <c r="D9">
-        <v>0.9981630260262809</v>
+        <v>0.9939135626727936</v>
       </c>
       <c r="E9">
-        <v>1.000420455870045</v>
+        <v>1.004957789339782</v>
       </c>
       <c r="F9">
-        <v>1.000521371159902</v>
+        <v>1.004514637560676</v>
       </c>
       <c r="G9">
-        <v>1.001055246763294</v>
+        <v>0.9870244538872426</v>
       </c>
       <c r="H9">
-        <v>0.9990310968305648</v>
+        <v>1.004514637560676</v>
       </c>
       <c r="I9">
-        <v>1.000449878479392</v>
+        <v>0.9870244538872426</v>
       </c>
       <c r="J9">
-        <v>0.9981630260262809</v>
+        <v>1.002330348206932</v>
       </c>
       <c r="K9">
-        <v>1.000521371159902</v>
+        <v>1.004514637560676</v>
       </c>
       <c r="L9">
-        <v>1.000420455870045</v>
+        <v>1.002330348206932</v>
       </c>
       <c r="M9">
-        <v>0.999291740948163</v>
+        <v>0.9946774010470874</v>
       </c>
       <c r="N9">
-        <v>0.999291740948163</v>
+        <v>0.9946774010470874</v>
       </c>
       <c r="O9">
-        <v>0.9992048595756303</v>
+        <v>0.9944227882556561</v>
       </c>
       <c r="P9">
-        <v>0.9997016176854094</v>
+        <v>0.9979564798849502</v>
       </c>
       <c r="Q9">
-        <v>0.9997016176854094</v>
+        <v>0.9979564798849502</v>
       </c>
       <c r="R9">
-        <v>0.9999065560540327</v>
+        <v>0.9995960193038815</v>
       </c>
       <c r="S9">
-        <v>0.9999065560540327</v>
+        <v>0.9995960193038815</v>
       </c>
       <c r="T9">
-        <v>0.9999401791882466</v>
-      </c>
-    </row>
-    <row r="10" spans="1:40">
+        <v>0.9992846599124197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1168,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000899942899892</v>
+        <v>1.050022242112039</v>
       </c>
       <c r="D10">
-        <v>0.9961194121295651</v>
+        <v>0.8901285600602519</v>
       </c>
       <c r="E10">
-        <v>1.00098952227564</v>
+        <v>1.181723565125295</v>
       </c>
       <c r="F10">
-        <v>1.000899942899892</v>
+        <v>0.9964183924769775</v>
       </c>
       <c r="G10">
-        <v>1.002493504185552</v>
+        <v>0.8104593637871472</v>
       </c>
       <c r="H10">
-        <v>0.9979157617499326</v>
+        <v>0.9964183924769775</v>
       </c>
       <c r="I10">
-        <v>1.000963406252315</v>
+        <v>0.8104593637871472</v>
       </c>
       <c r="J10">
-        <v>0.9961194121295651</v>
+        <v>1.072081400736139</v>
       </c>
       <c r="K10">
-        <v>1.000899942899892</v>
+        <v>0.9964183924769775</v>
       </c>
       <c r="L10">
-        <v>1.00098952227564</v>
+        <v>1.072081400736139</v>
       </c>
       <c r="M10">
-        <v>0.9985544672026025</v>
+        <v>0.9412703822616433</v>
       </c>
       <c r="N10">
-        <v>0.9985544672026025</v>
+        <v>0.9412703822616433</v>
       </c>
       <c r="O10">
-        <v>0.9983415653850459</v>
+        <v>0.9242231081945128</v>
       </c>
       <c r="P10">
-        <v>0.9993362924350322</v>
+        <v>0.9596530523334214</v>
       </c>
       <c r="Q10">
-        <v>0.9993362924350322</v>
+        <v>0.9596530523334215</v>
       </c>
       <c r="R10">
-        <v>0.9997272050512471</v>
+        <v>0.9688443873693104</v>
       </c>
       <c r="S10">
-        <v>0.9997272050512471</v>
+        <v>0.9688443873693104</v>
       </c>
       <c r="T10">
-        <v>0.9998969249154829</v>
-      </c>
-    </row>
-    <row r="11" spans="1:40">
+        <v>1.000138920716308</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1230,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.002075246017</v>
+        <v>1.030145054151836</v>
       </c>
       <c r="D11">
-        <v>0.9932685658082703</v>
+        <v>0.9305910766820134</v>
       </c>
       <c r="E11">
-        <v>1.001458610573902</v>
+        <v>1.11129016368297</v>
       </c>
       <c r="F11">
-        <v>1.002075246017</v>
+        <v>1.008907961864615</v>
       </c>
       <c r="G11">
-        <v>1.003631947598662</v>
+        <v>0.8876539919539809</v>
       </c>
       <c r="H11">
-        <v>0.9964836333760886</v>
+        <v>1.008907961864615</v>
       </c>
       <c r="I11">
-        <v>1.0016383890987</v>
+        <v>0.8876539919539809</v>
       </c>
       <c r="J11">
-        <v>0.9932685658082703</v>
+        <v>1.038884594350739</v>
       </c>
       <c r="K11">
-        <v>1.002075246017</v>
+        <v>1.008907961864615</v>
       </c>
       <c r="L11">
-        <v>1.001458610573902</v>
+        <v>1.038884594350739</v>
       </c>
       <c r="M11">
-        <v>0.9973635881910862</v>
+        <v>0.9632692931523597</v>
       </c>
       <c r="N11">
-        <v>0.9973635881910862</v>
+        <v>0.9632692931523597</v>
       </c>
       <c r="O11">
-        <v>0.9970702699194204</v>
+        <v>0.9523765543289109</v>
       </c>
       <c r="P11">
-        <v>0.9989341407997241</v>
+        <v>0.9784821827231115</v>
       </c>
       <c r="Q11">
-        <v>0.9989341407997241</v>
+        <v>0.9784821827231115</v>
       </c>
       <c r="R11">
-        <v>0.9997194171040431</v>
+        <v>0.9860886275084875</v>
       </c>
       <c r="S11">
-        <v>0.9997194171040431</v>
+        <v>0.9860886275084875</v>
       </c>
       <c r="T11">
-        <v>0.9997593987454372</v>
-      </c>
-    </row>
-    <row r="12" spans="1:40">
+        <v>1.001245473781026</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1292,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9762328983501093</v>
+        <v>1.016015130168423</v>
       </c>
       <c r="D12">
-        <v>1.077877451537533</v>
+        <v>0.9648286567157899</v>
       </c>
       <c r="E12">
-        <v>0.9800831147905154</v>
+        <v>1.056334868378946</v>
       </c>
       <c r="F12">
-        <v>0.9762328983501093</v>
+        <v>1.000955043084212</v>
       </c>
       <c r="G12">
-        <v>0.9327484584809497</v>
+        <v>0.9386744326736818</v>
       </c>
       <c r="H12">
-        <v>1.05017208908841</v>
+        <v>1.000955043084212</v>
       </c>
       <c r="I12">
-        <v>0.9789606011489488</v>
+        <v>0.9386744326736818</v>
       </c>
       <c r="J12">
-        <v>1.077877451537533</v>
+        <v>1.022212691231578</v>
       </c>
       <c r="K12">
-        <v>0.9762328983501093</v>
+        <v>1.000955043084212</v>
       </c>
       <c r="L12">
-        <v>0.9800831147905154</v>
+        <v>1.022212691231578</v>
       </c>
       <c r="M12">
-        <v>1.028980283164024</v>
+        <v>0.9804435619526299</v>
       </c>
       <c r="N12">
-        <v>1.028980283164024</v>
+        <v>0.9804435619526299</v>
       </c>
       <c r="O12">
-        <v>1.036044218472153</v>
+        <v>0.9752385935403499</v>
       </c>
       <c r="P12">
-        <v>1.011397821559386</v>
+        <v>0.987280722329824</v>
       </c>
       <c r="Q12">
-        <v>1.011397821559386</v>
+        <v>0.987280722329824</v>
       </c>
       <c r="R12">
-        <v>1.002606590757067</v>
+        <v>0.990699302518421</v>
       </c>
       <c r="S12">
-        <v>1.002606590757067</v>
+        <v>0.990699302518421</v>
       </c>
       <c r="T12">
-        <v>0.9993457688994112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:40">
+        <v>0.9998368037087718</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1354,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9988460005791484</v>
+        <v>0.9901318950068353</v>
       </c>
       <c r="D13">
-        <v>1.036008032146925</v>
+        <v>1.022213070888607</v>
       </c>
       <c r="E13">
-        <v>0.9900372152319273</v>
+        <v>0.9721911552389385</v>
       </c>
       <c r="F13">
-        <v>0.9988460005791484</v>
+        <v>0.989899920014533</v>
       </c>
       <c r="G13">
-        <v>0.9900919982056048</v>
+        <v>1.038497272460191</v>
       </c>
       <c r="H13">
-        <v>1.011857164849821</v>
+        <v>0.989899920014533</v>
       </c>
       <c r="I13">
-        <v>0.9926053784202922</v>
+        <v>1.038497272460191</v>
       </c>
       <c r="J13">
-        <v>1.036008032146925</v>
+        <v>0.9902273579528168</v>
       </c>
       <c r="K13">
-        <v>0.9988460005791484</v>
+        <v>0.989899920014533</v>
       </c>
       <c r="L13">
-        <v>0.9900372152319273</v>
+        <v>0.9902273579528168</v>
       </c>
       <c r="M13">
-        <v>1.013022623689426</v>
+        <v>1.014362315206504</v>
       </c>
       <c r="N13">
-        <v>1.013022623689426</v>
+        <v>1.014362315206504</v>
       </c>
       <c r="O13">
-        <v>1.012634137409558</v>
+        <v>1.016979233767205</v>
       </c>
       <c r="P13">
-        <v>1.008297082652667</v>
+        <v>1.006208183475847</v>
       </c>
       <c r="Q13">
-        <v>1.008297082652667</v>
+        <v>1.006208183475847</v>
       </c>
       <c r="R13">
-        <v>1.005934312134287</v>
+        <v>1.002131117610518</v>
       </c>
       <c r="S13">
-        <v>1.005934312134287</v>
+        <v>1.002131117610518</v>
       </c>
       <c r="T13">
-        <v>1.00324096490562</v>
-      </c>
-    </row>
-    <row r="14" spans="1:40">
+        <v>1.000526778593654</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1416,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.8700956238553862</v>
+        <v>1.0863871</v>
       </c>
       <c r="D14">
-        <v>1.335061443235451</v>
+        <v>0.8102074900000015</v>
       </c>
       <c r="E14">
-        <v>0.9457763916802239</v>
+        <v>1.315735799999999</v>
       </c>
       <c r="F14">
-        <v>0.8700956238553862</v>
+        <v>0.9917943100000015</v>
       </c>
       <c r="G14">
-        <v>0.8891843764791996</v>
+        <v>0.6734045099999993</v>
       </c>
       <c r="H14">
-        <v>1.155687464767944</v>
+        <v>0.9917943100000015</v>
       </c>
       <c r="I14">
-        <v>0.9237120272003102</v>
+        <v>0.6734045099999993</v>
       </c>
       <c r="J14">
-        <v>1.335061443235451</v>
+        <v>1.125314099999998</v>
       </c>
       <c r="K14">
-        <v>0.8700956238553862</v>
+        <v>0.9917943100000015</v>
       </c>
       <c r="L14">
-        <v>0.9457763916802239</v>
+        <v>1.125314099999998</v>
       </c>
       <c r="M14">
-        <v>1.140418917457837</v>
+        <v>0.8993593049999988</v>
       </c>
       <c r="N14">
-        <v>1.140418917457837</v>
+        <v>0.8993593049999988</v>
       </c>
       <c r="O14">
-        <v>1.145508433227873</v>
+        <v>0.8696420333333331</v>
       </c>
       <c r="P14">
-        <v>1.050311152923687</v>
+        <v>0.9301709733333331</v>
       </c>
       <c r="Q14">
-        <v>1.050311152923687</v>
+        <v>0.9301709733333331</v>
       </c>
       <c r="R14">
-        <v>1.005257270656612</v>
+        <v>0.9455768075000002</v>
       </c>
       <c r="S14">
-        <v>1.005257270656612</v>
+        <v>0.9455768075000002</v>
       </c>
       <c r="T14">
-        <v>1.019919554536419</v>
-      </c>
-    </row>
-    <row r="15" spans="1:40">
+        <v>1.000473885</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1478,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9994301372983533</v>
+        <v>1.1014624</v>
       </c>
       <c r="D15">
-        <v>1.042647621188966</v>
+        <v>0.7938064500000001</v>
       </c>
       <c r="E15">
-        <v>0.9787761668046858</v>
+        <v>0.9618347200000001</v>
       </c>
       <c r="F15">
-        <v>0.9994301372983533</v>
+        <v>1.3679559</v>
       </c>
       <c r="G15">
-        <v>0.9161628456874087</v>
+        <v>0.5229061699999999</v>
       </c>
       <c r="H15">
-        <v>1.04199403505895</v>
+        <v>1.3679559</v>
       </c>
       <c r="I15">
-        <v>0.9847977284212999</v>
+        <v>0.5229061699999999</v>
       </c>
       <c r="J15">
-        <v>1.042647621188966</v>
+        <v>0.99179431</v>
       </c>
       <c r="K15">
-        <v>0.9994301372983533</v>
+        <v>1.3679559</v>
       </c>
       <c r="L15">
-        <v>0.9787761668046858</v>
+        <v>0.99179431</v>
       </c>
       <c r="M15">
-        <v>1.010711893996826</v>
+        <v>0.75735024</v>
       </c>
       <c r="N15">
-        <v>1.010711893996826</v>
+        <v>0.75735024</v>
       </c>
       <c r="O15">
-        <v>1.021139274350867</v>
+        <v>0.76950231</v>
       </c>
       <c r="P15">
-        <v>1.006951308430668</v>
+        <v>0.9608854599999997</v>
       </c>
       <c r="Q15">
-        <v>1.006951308430668</v>
+        <v>0.9608854599999997</v>
       </c>
       <c r="R15">
-        <v>1.005071015647589</v>
+        <v>1.06265307</v>
       </c>
       <c r="S15">
-        <v>1.005071015647589</v>
+        <v>1.06265307</v>
       </c>
       <c r="T15">
-        <v>0.9939680890766106</v>
-      </c>
-    </row>
-    <row r="16" spans="1:40">
+        <v>0.9566266583333332</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1540,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9993646409430413</v>
+        <v>1.2125577</v>
       </c>
       <c r="D16">
-        <v>1.000301328699251</v>
+        <v>0.49189623</v>
       </c>
       <c r="E16">
-        <v>1.000221284574636</v>
+        <v>1.9473815</v>
       </c>
       <c r="F16">
-        <v>0.9993646409430413</v>
+        <v>0.9618347200000001</v>
       </c>
       <c r="G16">
-        <v>1.000667695520432</v>
+        <v>0.25020352</v>
       </c>
       <c r="H16">
-        <v>1.000011804180012</v>
+        <v>0.9618347200000001</v>
       </c>
       <c r="I16">
-        <v>0.9999715349108754</v>
+        <v>0.25020352</v>
       </c>
       <c r="J16">
-        <v>1.000301328699251</v>
+        <v>1.3157358</v>
       </c>
       <c r="K16">
-        <v>0.9993646409430413</v>
+        <v>0.9618347200000001</v>
       </c>
       <c r="L16">
-        <v>1.000221284574636</v>
+        <v>1.3157358</v>
       </c>
       <c r="M16">
-        <v>1.000261306636943</v>
+        <v>0.78296966</v>
       </c>
       <c r="N16">
-        <v>1.000261306636943</v>
+        <v>0.78296966</v>
       </c>
       <c r="O16">
-        <v>1.0001781391513</v>
+        <v>0.6859451833333333</v>
       </c>
       <c r="P16">
-        <v>0.9999624180723093</v>
+        <v>0.8425913466666667</v>
       </c>
       <c r="Q16">
-        <v>0.9999624180723096</v>
+        <v>0.8425913466666666</v>
       </c>
       <c r="R16">
-        <v>0.9998129737899925</v>
+        <v>0.87240219</v>
       </c>
       <c r="S16">
-        <v>0.9998129737899925</v>
+        <v>0.87240219</v>
       </c>
       <c r="T16">
-        <v>1.000089714804708</v>
+        <v>1.029934911666667</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1602,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000904345709062</v>
+        <v>1.012886</v>
       </c>
       <c r="D17">
-        <v>0.9990476075662947</v>
+        <v>0.98424247</v>
       </c>
       <c r="E17">
-        <v>0.9998756823636539</v>
+        <v>0.90037857</v>
       </c>
       <c r="F17">
-        <v>1.000904345709062</v>
+        <v>1.1082556</v>
       </c>
       <c r="G17">
-        <v>0.9994981217320993</v>
+        <v>0.91308462</v>
       </c>
       <c r="H17">
-        <v>0.9996953136296278</v>
+        <v>1.1082556</v>
       </c>
       <c r="I17">
-        <v>1.000175584650901</v>
+        <v>0.91308462</v>
       </c>
       <c r="J17">
-        <v>0.9990476075662947</v>
+        <v>0.97363919</v>
       </c>
       <c r="K17">
-        <v>1.000904345709062</v>
+        <v>1.1082556</v>
       </c>
       <c r="L17">
-        <v>0.9998756823636539</v>
+        <v>0.97363919</v>
       </c>
       <c r="M17">
-        <v>0.9994616449649742</v>
+        <v>0.9433619049999999</v>
       </c>
       <c r="N17">
-        <v>0.9994616449649742</v>
+        <v>0.9433619049999999</v>
       </c>
       <c r="O17">
-        <v>0.9995395345198587</v>
+        <v>0.9569887599999999</v>
       </c>
       <c r="P17">
-        <v>0.9999425452130035</v>
+        <v>0.99832647</v>
       </c>
       <c r="Q17">
-        <v>0.9999425452130035</v>
+        <v>0.99832647</v>
       </c>
       <c r="R17">
-        <v>1.000182995337018</v>
+        <v>1.0258087525</v>
       </c>
       <c r="S17">
-        <v>1.000182995337018</v>
+        <v>1.0258087525</v>
       </c>
       <c r="T17">
-        <v>0.9998661092752732</v>
+        <v>0.982081075</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1664,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.998985845600207</v>
+        <v>1.036389898630137</v>
       </c>
       <c r="D18">
-        <v>0.9988527087250627</v>
+        <v>0.9253719497260274</v>
       </c>
       <c r="E18">
-        <v>1.000945816618609</v>
+        <v>1.057229300821918</v>
       </c>
       <c r="F18">
-        <v>0.998985845600207</v>
+        <v>1.059140436986302</v>
       </c>
       <c r="G18">
-        <v>1.002585563018587</v>
+        <v>0.8402270360273973</v>
       </c>
       <c r="H18">
-        <v>0.9990947884663997</v>
+        <v>1.059140436986302</v>
       </c>
       <c r="I18">
-        <v>1.000374396447368</v>
+        <v>0.8402270360273973</v>
       </c>
       <c r="J18">
-        <v>0.9988527087250627</v>
+        <v>1.027027528904109</v>
       </c>
       <c r="K18">
-        <v>0.998985845600207</v>
+        <v>1.059140436986302</v>
       </c>
       <c r="L18">
-        <v>1.000945816618609</v>
+        <v>1.027027528904109</v>
       </c>
       <c r="M18">
-        <v>0.9998992626718358</v>
+        <v>0.9336272824657533</v>
       </c>
       <c r="N18">
-        <v>0.9998992626718358</v>
+        <v>0.9336272824657533</v>
       </c>
       <c r="O18">
-        <v>0.999631104603357</v>
+        <v>0.9308755048858447</v>
       </c>
       <c r="P18">
-        <v>0.9995947903146263</v>
+        <v>0.9754650006392694</v>
       </c>
       <c r="Q18">
-        <v>0.9995947903146263</v>
+        <v>0.9754650006392694</v>
       </c>
       <c r="R18">
-        <v>0.9994425541360215</v>
+        <v>0.9963838597260275</v>
       </c>
       <c r="S18">
-        <v>0.9994425541360215</v>
+        <v>0.9963838597260275</v>
       </c>
       <c r="T18">
-        <v>1.000139853146039</v>
+        <v>0.9908976918493151</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1726,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9951654973228147</v>
+        <v>1.032922055789474</v>
       </c>
       <c r="D19">
-        <v>0.998412141883855</v>
+        <v>0.9144072342105264</v>
       </c>
       <c r="E19">
-        <v>1.003055780826184</v>
+        <v>1.203647928421053</v>
       </c>
       <c r="F19">
-        <v>0.9951654973228147</v>
+        <v>0.9584451015789475</v>
       </c>
       <c r="G19">
-        <v>1.008480993758392</v>
+        <v>0.9028523952631577</v>
       </c>
       <c r="H19">
-        <v>0.9979894349027767</v>
+        <v>0.9584451015789475</v>
       </c>
       <c r="I19">
-        <v>1.000755405381218</v>
+        <v>0.9028523952631577</v>
       </c>
       <c r="J19">
-        <v>0.998412141883855</v>
+        <v>1.063570988421053</v>
       </c>
       <c r="K19">
-        <v>0.9951654973228147</v>
+        <v>0.9584451015789475</v>
       </c>
       <c r="L19">
-        <v>1.003055780826184</v>
+        <v>1.063570988421053</v>
       </c>
       <c r="M19">
-        <v>1.000733961355019</v>
+        <v>0.9832116918421052</v>
       </c>
       <c r="N19">
-        <v>1.000733961355019</v>
+        <v>0.9832116918421052</v>
       </c>
       <c r="O19">
-        <v>0.9998191192042718</v>
+        <v>0.9602768726315789</v>
       </c>
       <c r="P19">
-        <v>0.9988778066776178</v>
+        <v>0.9749561617543859</v>
       </c>
       <c r="Q19">
-        <v>0.9988778066776178</v>
+        <v>0.9749561617543859</v>
       </c>
       <c r="R19">
-        <v>0.997949729338917</v>
+        <v>0.9708283967105262</v>
       </c>
       <c r="S19">
-        <v>0.997949729338917</v>
+        <v>0.9708283967105262</v>
       </c>
       <c r="T19">
-        <v>1.00064320901254</v>
+        <v>1.012640950614035</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.093924742105263</v>
+      </c>
+      <c r="D20">
+        <v>0.8020069699999999</v>
+      </c>
+      <c r="E20">
+        <v>1.13878526</v>
+      </c>
+      <c r="F20">
+        <v>1.179875116842106</v>
+      </c>
+      <c r="G20">
+        <v>0.5981553399999998</v>
+      </c>
+      <c r="H20">
+        <v>1.179875116842106</v>
+      </c>
+      <c r="I20">
+        <v>0.5981553399999998</v>
+      </c>
+      <c r="J20">
+        <v>1.058554216842105</v>
+      </c>
+      <c r="K20">
+        <v>1.179875116842106</v>
+      </c>
+      <c r="L20">
+        <v>1.058554216842105</v>
+      </c>
+      <c r="M20">
+        <v>0.8283547784210525</v>
+      </c>
+      <c r="N20">
+        <v>0.8283547784210525</v>
+      </c>
+      <c r="O20">
+        <v>0.8195721756140349</v>
+      </c>
+      <c r="P20">
+        <v>0.9455282245614036</v>
+      </c>
+      <c r="Q20">
+        <v>0.9455282245614036</v>
+      </c>
+      <c r="R20">
+        <v>1.004114947631579</v>
+      </c>
+      <c r="S20">
+        <v>1.004114947631579</v>
+      </c>
+      <c r="T20">
+        <v>0.9785502742982456</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9237120272003099</v>
+      </c>
+      <c r="D21">
+        <v>1.155687464767944</v>
+      </c>
+      <c r="E21">
+        <v>0.8891843764791993</v>
+      </c>
+      <c r="F21">
+        <v>0.8700956238553862</v>
+      </c>
+      <c r="G21">
+        <v>1.335061443235451</v>
+      </c>
+      <c r="H21">
+        <v>0.8700956238553862</v>
+      </c>
+      <c r="I21">
+        <v>1.335061443235451</v>
+      </c>
+      <c r="J21">
+        <v>0.9457763916802239</v>
+      </c>
+      <c r="K21">
+        <v>0.8700956238553862</v>
+      </c>
+      <c r="L21">
+        <v>0.9457763916802239</v>
+      </c>
+      <c r="M21">
+        <v>1.140418917457837</v>
+      </c>
+      <c r="N21">
+        <v>1.140418917457837</v>
+      </c>
+      <c r="O21">
+        <v>1.145508433227873</v>
+      </c>
+      <c r="P21">
+        <v>1.050311152923687</v>
+      </c>
+      <c r="Q21">
+        <v>1.050311152923687</v>
+      </c>
+      <c r="R21">
+        <v>1.005257270656612</v>
+      </c>
+      <c r="S21">
+        <v>1.005257270656612</v>
+      </c>
+      <c r="T21">
+        <v>1.019919554536419</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9847977284212999</v>
+      </c>
+      <c r="D22">
+        <v>1.04199403505895</v>
+      </c>
+      <c r="E22">
+        <v>0.9161628456874087</v>
+      </c>
+      <c r="F22">
+        <v>0.9994301372983533</v>
+      </c>
+      <c r="G22">
+        <v>1.042647621188965</v>
+      </c>
+      <c r="H22">
+        <v>0.9994301372983533</v>
+      </c>
+      <c r="I22">
+        <v>1.042647621188965</v>
+      </c>
+      <c r="J22">
+        <v>0.9787761668046858</v>
+      </c>
+      <c r="K22">
+        <v>0.9994301372983533</v>
+      </c>
+      <c r="L22">
+        <v>0.9787761668046858</v>
+      </c>
+      <c r="M22">
+        <v>1.010711893996826</v>
+      </c>
+      <c r="N22">
+        <v>1.010711893996826</v>
+      </c>
+      <c r="O22">
+        <v>1.021139274350867</v>
+      </c>
+      <c r="P22">
+        <v>1.006951308430668</v>
+      </c>
+      <c r="Q22">
+        <v>1.006951308430668</v>
+      </c>
+      <c r="R22">
+        <v>1.005071015647589</v>
+      </c>
+      <c r="S22">
+        <v>1.005071015647589</v>
+      </c>
+      <c r="T22">
+        <v>0.9939680890766104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9789606011489488</v>
+      </c>
+      <c r="D23">
+        <v>1.05017208908841</v>
+      </c>
+      <c r="E23">
+        <v>0.9327484584809496</v>
+      </c>
+      <c r="F23">
+        <v>0.9762328983501093</v>
+      </c>
+      <c r="G23">
+        <v>1.077877451537533</v>
+      </c>
+      <c r="H23">
+        <v>0.9762328983501093</v>
+      </c>
+      <c r="I23">
+        <v>1.077877451537533</v>
+      </c>
+      <c r="J23">
+        <v>0.9800831147905154</v>
+      </c>
+      <c r="K23">
+        <v>0.9762328983501093</v>
+      </c>
+      <c r="L23">
+        <v>0.9800831147905154</v>
+      </c>
+      <c r="M23">
+        <v>1.028980283164024</v>
+      </c>
+      <c r="N23">
+        <v>1.028980283164024</v>
+      </c>
+      <c r="O23">
+        <v>1.036044218472153</v>
+      </c>
+      <c r="P23">
+        <v>1.011397821559386</v>
+      </c>
+      <c r="Q23">
+        <v>1.011397821559386</v>
+      </c>
+      <c r="R23">
+        <v>1.002606590757067</v>
+      </c>
+      <c r="S23">
+        <v>1.002606590757067</v>
+      </c>
+      <c r="T23">
+        <v>0.9993457688994112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9926053784202922</v>
+      </c>
+      <c r="D24">
+        <v>1.011857164849821</v>
+      </c>
+      <c r="E24">
+        <v>0.9900919982056045</v>
+      </c>
+      <c r="F24">
+        <v>0.9988460005791482</v>
+      </c>
+      <c r="G24">
+        <v>1.036008032146925</v>
+      </c>
+      <c r="H24">
+        <v>0.9988460005791482</v>
+      </c>
+      <c r="I24">
+        <v>1.036008032146925</v>
+      </c>
+      <c r="J24">
+        <v>0.9900372152319273</v>
+      </c>
+      <c r="K24">
+        <v>0.9988460005791482</v>
+      </c>
+      <c r="L24">
+        <v>0.9900372152319273</v>
+      </c>
+      <c r="M24">
+        <v>1.013022623689426</v>
+      </c>
+      <c r="N24">
+        <v>1.013022623689426</v>
+      </c>
+      <c r="O24">
+        <v>1.012634137409558</v>
+      </c>
+      <c r="P24">
+        <v>1.008297082652667</v>
+      </c>
+      <c r="Q24">
+        <v>1.008297082652667</v>
+      </c>
+      <c r="R24">
+        <v>1.005934312134287</v>
+      </c>
+      <c r="S24">
+        <v>1.005934312134287</v>
+      </c>
+      <c r="T24">
+        <v>1.00324096490562</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.076831202290409</v>
+      </c>
+      <c r="D25">
+        <v>0.8426804539050847</v>
+      </c>
+      <c r="E25">
+        <v>1.040066695130711</v>
+      </c>
+      <c r="F25">
+        <v>1.209199205433904</v>
+      </c>
+      <c r="G25">
+        <v>0.6516794280098702</v>
+      </c>
+      <c r="H25">
+        <v>1.209199205433904</v>
+      </c>
+      <c r="I25">
+        <v>0.6516794280098702</v>
+      </c>
+      <c r="J25">
+        <v>1.022358760569408</v>
+      </c>
+      <c r="K25">
+        <v>1.209199205433904</v>
+      </c>
+      <c r="L25">
+        <v>1.022358760569408</v>
+      </c>
+      <c r="M25">
+        <v>0.8370190942896394</v>
+      </c>
+      <c r="N25">
+        <v>0.8370190942896394</v>
+      </c>
+      <c r="O25">
+        <v>0.8389062141614545</v>
+      </c>
+      <c r="P25">
+        <v>0.9610791313377275</v>
+      </c>
+      <c r="Q25">
+        <v>0.9610791313377275</v>
+      </c>
+      <c r="R25">
+        <v>1.023109149861771</v>
+      </c>
+      <c r="S25">
+        <v>1.023109149861771</v>
+      </c>
+      <c r="T25">
+        <v>0.9738026242232311</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.01624753496696</v>
+      </c>
+      <c r="D26">
+        <v>0.9624088333558491</v>
+      </c>
+      <c r="E26">
+        <v>1.106335847993797</v>
+      </c>
+      <c r="F26">
+        <v>0.9557657070441085</v>
+      </c>
+      <c r="G26">
+        <v>0.9475848549883495</v>
+      </c>
+      <c r="H26">
+        <v>0.9557657070441085</v>
+      </c>
+      <c r="I26">
+        <v>0.9475848549883495</v>
+      </c>
+      <c r="J26">
+        <v>1.041137176235208</v>
+      </c>
+      <c r="K26">
+        <v>0.9557657070441085</v>
+      </c>
+      <c r="L26">
+        <v>1.041137176235208</v>
+      </c>
+      <c r="M26">
+        <v>0.9943610156117786</v>
+      </c>
+      <c r="N26">
+        <v>0.9943610156117786</v>
+      </c>
+      <c r="O26">
+        <v>0.9837102881931354</v>
+      </c>
+      <c r="P26">
+        <v>0.9814959127558885</v>
+      </c>
+      <c r="Q26">
+        <v>0.9814959127558884</v>
+      </c>
+      <c r="R26">
+        <v>0.9750633613279435</v>
+      </c>
+      <c r="S26">
+        <v>0.9750633613279435</v>
+      </c>
+      <c r="T26">
+        <v>1.004913325764045</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.00463166672915</v>
+      </c>
+      <c r="D27">
+        <v>0.9871814698368729</v>
+      </c>
+      <c r="E27">
+        <v>1.013743867571337</v>
+      </c>
+      <c r="F27">
+        <v>1.012021657389473</v>
+      </c>
+      <c r="G27">
+        <v>0.9870565266743779</v>
+      </c>
+      <c r="H27">
+        <v>1.012021657389473</v>
+      </c>
+      <c r="I27">
+        <v>0.9870565266743779</v>
+      </c>
+      <c r="J27">
+        <v>1.001590508655779</v>
+      </c>
+      <c r="K27">
+        <v>1.012021657389473</v>
+      </c>
+      <c r="L27">
+        <v>1.001590508655779</v>
+      </c>
+      <c r="M27">
+        <v>0.9943235176650786</v>
+      </c>
+      <c r="N27">
+        <v>0.9943235176650786</v>
+      </c>
+      <c r="O27">
+        <v>0.9919428350556768</v>
+      </c>
+      <c r="P27">
+        <v>1.00022289757321</v>
+      </c>
+      <c r="Q27">
+        <v>1.00022289757321</v>
+      </c>
+      <c r="R27">
+        <v>1.003172587527276</v>
+      </c>
+      <c r="S27">
+        <v>1.003172587527276</v>
+      </c>
+      <c r="T27">
+        <v>1.001037616142832</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.009844347310388</v>
+      </c>
+      <c r="D28">
+        <v>0.9797353545962898</v>
+      </c>
+      <c r="E28">
+        <v>1.013527238219397</v>
+      </c>
+      <c r="F28">
+        <v>1.018391404170891</v>
+      </c>
+      <c r="G28">
+        <v>0.9565085723005406</v>
+      </c>
+      <c r="H28">
+        <v>1.018391404170891</v>
+      </c>
+      <c r="I28">
+        <v>0.9565085723005406</v>
+      </c>
+      <c r="J28">
+        <v>1.006327043632693</v>
+      </c>
+      <c r="K28">
+        <v>1.018391404170891</v>
+      </c>
+      <c r="L28">
+        <v>1.006327043632693</v>
+      </c>
+      <c r="M28">
+        <v>0.9814178079666169</v>
+      </c>
+      <c r="N28">
+        <v>0.9814178079666169</v>
+      </c>
+      <c r="O28">
+        <v>0.980856990176508</v>
+      </c>
+      <c r="P28">
+        <v>0.9937423400347084</v>
+      </c>
+      <c r="Q28">
+        <v>0.9937423400347084</v>
+      </c>
+      <c r="R28">
+        <v>0.999904606068754</v>
+      </c>
+      <c r="S28">
+        <v>0.999904606068754</v>
+      </c>
+      <c r="T28">
+        <v>0.9973889933717</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9934706138223061</v>
+      </c>
+      <c r="D29">
+        <v>1.014605155172839</v>
+      </c>
+      <c r="E29">
+        <v>0.9417775132367981</v>
+      </c>
+      <c r="F29">
+        <v>1.036438012246326</v>
+      </c>
+      <c r="G29">
+        <v>1.018633946610472</v>
+      </c>
+      <c r="H29">
+        <v>1.036438012246326</v>
+      </c>
+      <c r="I29">
+        <v>1.018633946610472</v>
+      </c>
+      <c r="J29">
+        <v>0.9757885550309708</v>
+      </c>
+      <c r="K29">
+        <v>1.036438012246326</v>
+      </c>
+      <c r="L29">
+        <v>0.9757885550309708</v>
+      </c>
+      <c r="M29">
+        <v>0.9972112508207215</v>
+      </c>
+      <c r="N29">
+        <v>0.9972112508207215</v>
+      </c>
+      <c r="O29">
+        <v>1.003009218938094</v>
+      </c>
+      <c r="P29">
+        <v>1.01028683796259</v>
+      </c>
+      <c r="Q29">
+        <v>1.01028683796259</v>
+      </c>
+      <c r="R29">
+        <v>1.016824631533523</v>
+      </c>
+      <c r="S29">
+        <v>1.016824631533523</v>
+      </c>
+      <c r="T29">
+        <v>0.9967856326866187</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha3F-HW25.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha3F-HW25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.029860053243006</v>
+        <v>1.01209127276858</v>
       </c>
       <c r="D4">
-        <v>0.9306570305502204</v>
+        <v>0.9731341077459776</v>
       </c>
       <c r="E4">
-        <v>1.115163487510936</v>
+        <v>1.042368299902967</v>
       </c>
       <c r="F4">
-        <v>1.005755844614242</v>
+        <v>1.002112216537267</v>
       </c>
       <c r="G4">
-        <v>0.8902581062539257</v>
+        <v>0.9539394133812794</v>
       </c>
       <c r="H4">
-        <v>1.005755844614242</v>
+        <v>1.002112216537267</v>
       </c>
       <c r="I4">
-        <v>0.8902581062539257</v>
+        <v>0.9539394133812794</v>
       </c>
       <c r="J4">
-        <v>1.039779476010362</v>
+        <v>1.016197877769689</v>
       </c>
       <c r="K4">
-        <v>1.005755844614242</v>
+        <v>1.002112216537267</v>
       </c>
       <c r="L4">
-        <v>1.039779476010362</v>
+        <v>1.016197877769689</v>
       </c>
       <c r="M4">
-        <v>0.9650187911321436</v>
+        <v>0.985068645575484</v>
       </c>
       <c r="N4">
-        <v>0.9650187911321436</v>
+        <v>0.985068645575484</v>
       </c>
       <c r="O4">
-        <v>0.9535648709381692</v>
+        <v>0.981090466298982</v>
       </c>
       <c r="P4">
-        <v>0.9785978089595098</v>
+        <v>0.9907498358960782</v>
       </c>
       <c r="Q4">
-        <v>0.9785978089595098</v>
+        <v>0.9907498358960782</v>
       </c>
       <c r="R4">
-        <v>0.9853873178731928</v>
+        <v>0.9935904310563753</v>
       </c>
       <c r="S4">
-        <v>0.9853873178731928</v>
+        <v>0.9935904310563753</v>
       </c>
       <c r="T4">
-        <v>1.001912333030449</v>
+        <v>0.9999738646842932</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.01583789538905</v>
+        <v>1.094311840689</v>
       </c>
       <c r="D5">
-        <v>0.9652271944092247</v>
+        <v>0.8015858300408976</v>
       </c>
       <c r="E5">
-        <v>1.050289408804033</v>
+        <v>1.12969791767187</v>
       </c>
       <c r="F5">
-        <v>1.006764224257925</v>
+        <v>1.18953405722407</v>
       </c>
       <c r="G5">
-        <v>0.9383261708573483</v>
+        <v>0.5942908985687556</v>
       </c>
       <c r="H5">
-        <v>1.006764224257925</v>
+        <v>1.18953405722407</v>
       </c>
       <c r="I5">
-        <v>0.9383261708573483</v>
+        <v>0.5942908985687556</v>
       </c>
       <c r="J5">
-        <v>1.019571911945244</v>
+        <v>1.055125744823871</v>
       </c>
       <c r="K5">
-        <v>1.006764224257925</v>
+        <v>1.18953405722407</v>
       </c>
       <c r="L5">
-        <v>1.019571911945244</v>
+        <v>1.055125744823871</v>
       </c>
       <c r="M5">
-        <v>0.9789490414012962</v>
+        <v>0.8247083216963135</v>
       </c>
       <c r="N5">
-        <v>0.9789490414012962</v>
+        <v>0.8247083216963135</v>
       </c>
       <c r="O5">
-        <v>0.974375092403939</v>
+        <v>0.8170008244778414</v>
       </c>
       <c r="P5">
-        <v>0.9882207690201725</v>
+        <v>0.9463169002055659</v>
       </c>
       <c r="Q5">
-        <v>0.9882207690201725</v>
+        <v>0.9463169002055659</v>
       </c>
       <c r="R5">
-        <v>0.9928566328296107</v>
+        <v>1.007121189460192</v>
       </c>
       <c r="S5">
-        <v>0.9928566328296107</v>
+        <v>1.007121189460192</v>
       </c>
       <c r="T5">
-        <v>0.9993361342771375</v>
+        <v>0.9774243815030775</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.04926171772109</v>
+        <v>1.029860053243006</v>
       </c>
       <c r="D6">
-        <v>0.8916512474684229</v>
+        <v>0.9306570305502204</v>
       </c>
       <c r="E6">
-        <v>1.178462022008578</v>
+        <v>1.115163487510936</v>
       </c>
       <c r="F6">
-        <v>0.9975603262270364</v>
+        <v>1.005755844614242</v>
       </c>
       <c r="G6">
-        <v>0.8134353594606664</v>
+        <v>0.8902581062539257</v>
       </c>
       <c r="H6">
-        <v>0.9975603262270364</v>
+        <v>1.005755844614242</v>
       </c>
       <c r="I6">
-        <v>0.8134353594606664</v>
+        <v>0.8902581062539257</v>
       </c>
       <c r="J6">
-        <v>1.070537972377412</v>
+        <v>1.039779476010362</v>
       </c>
       <c r="K6">
-        <v>0.9975603262270364</v>
+        <v>1.005755844614242</v>
       </c>
       <c r="L6">
-        <v>1.070537972377412</v>
+        <v>1.039779476010362</v>
       </c>
       <c r="M6">
-        <v>0.941986665919039</v>
+        <v>0.9650187911321436</v>
       </c>
       <c r="N6">
-        <v>0.941986665919039</v>
+        <v>0.9650187911321436</v>
       </c>
       <c r="O6">
-        <v>0.9252081931021671</v>
+        <v>0.9535648709381692</v>
       </c>
       <c r="P6">
-        <v>0.9605112193550381</v>
+        <v>0.9785978089595098</v>
       </c>
       <c r="Q6">
-        <v>0.9605112193550381</v>
+        <v>0.9785978089595098</v>
       </c>
       <c r="R6">
-        <v>0.9697734960730378</v>
+        <v>0.9853873178731928</v>
       </c>
       <c r="S6">
-        <v>0.9697734960730378</v>
+        <v>0.9853873178731928</v>
       </c>
       <c r="T6">
-        <v>1.000151440877201</v>
+        <v>1.001912333030449</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.002023901731235</v>
+        <v>1.01583789538905</v>
       </c>
       <c r="D7">
-        <v>0.9958271379633181</v>
+        <v>0.9652271944092247</v>
       </c>
       <c r="E7">
-        <v>1.00294605781747</v>
+        <v>1.050289408804033</v>
       </c>
       <c r="F7">
-        <v>1.003615148924999</v>
+        <v>1.006764224257925</v>
       </c>
       <c r="G7">
-        <v>0.9911263220042859</v>
+        <v>0.9383261708573483</v>
       </c>
       <c r="H7">
-        <v>1.003615148924999</v>
+        <v>1.006764224257925</v>
       </c>
       <c r="I7">
-        <v>0.9911263220042859</v>
+        <v>0.9383261708573483</v>
       </c>
       <c r="J7">
-        <v>1.001369065859894</v>
+        <v>1.019571911945244</v>
       </c>
       <c r="K7">
-        <v>1.003615148924999</v>
+        <v>1.006764224257925</v>
       </c>
       <c r="L7">
-        <v>1.001369065859894</v>
+        <v>1.019571911945244</v>
       </c>
       <c r="M7">
-        <v>0.9962476939320899</v>
+        <v>0.9789490414012962</v>
       </c>
       <c r="N7">
-        <v>0.9962476939320899</v>
+        <v>0.9789490414012962</v>
       </c>
       <c r="O7">
-        <v>0.9961075086091661</v>
+        <v>0.974375092403939</v>
       </c>
       <c r="P7">
-        <v>0.9987035122630598</v>
+        <v>0.9882207690201725</v>
       </c>
       <c r="Q7">
-        <v>0.9987035122630598</v>
+        <v>0.9882207690201725</v>
       </c>
       <c r="R7">
-        <v>0.9999314214285446</v>
+        <v>0.9928566328296107</v>
       </c>
       <c r="S7">
-        <v>0.9999314214285446</v>
+        <v>0.9928566328296107</v>
       </c>
       <c r="T7">
-        <v>0.999484605716867</v>
+        <v>0.9993361342771375</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000175584650901</v>
+        <v>1.04926171772109</v>
       </c>
       <c r="D8">
-        <v>0.9996953136296278</v>
+        <v>0.8916512474684229</v>
       </c>
       <c r="E8">
-        <v>0.9994981217320993</v>
+        <v>1.178462022008578</v>
       </c>
       <c r="F8">
-        <v>1.000904345709062</v>
+        <v>0.9975603262270364</v>
       </c>
       <c r="G8">
-        <v>0.9990476075662951</v>
+        <v>0.8134353594606664</v>
       </c>
       <c r="H8">
-        <v>1.000904345709062</v>
+        <v>0.9975603262270364</v>
       </c>
       <c r="I8">
-        <v>0.9990476075662951</v>
+        <v>0.8134353594606664</v>
       </c>
       <c r="J8">
-        <v>0.999875682363654</v>
+        <v>1.070537972377412</v>
       </c>
       <c r="K8">
-        <v>1.000904345709062</v>
+        <v>0.9975603262270364</v>
       </c>
       <c r="L8">
-        <v>0.999875682363654</v>
+        <v>1.070537972377412</v>
       </c>
       <c r="M8">
-        <v>0.9994616449649745</v>
+        <v>0.941986665919039</v>
       </c>
       <c r="N8">
-        <v>0.9994616449649745</v>
+        <v>0.941986665919039</v>
       </c>
       <c r="O8">
-        <v>0.999539534519859</v>
+        <v>0.9252081931021671</v>
       </c>
       <c r="P8">
-        <v>0.9999425452130035</v>
+        <v>0.9605112193550381</v>
       </c>
       <c r="Q8">
-        <v>0.9999425452130036</v>
+        <v>0.9605112193550381</v>
       </c>
       <c r="R8">
-        <v>1.000182995337018</v>
+        <v>0.9697734960730378</v>
       </c>
       <c r="S8">
-        <v>1.000182995337018</v>
+        <v>0.9697734960730378</v>
       </c>
       <c r="T8">
-        <v>0.9998661092752732</v>
+        <v>1.000151440877201</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.002967167807092</v>
+        <v>1.002023901731235</v>
       </c>
       <c r="D9">
-        <v>0.9939135626727936</v>
+        <v>0.9958271379633181</v>
       </c>
       <c r="E9">
-        <v>1.004957789339782</v>
+        <v>1.00294605781747</v>
       </c>
       <c r="F9">
-        <v>1.004514637560676</v>
+        <v>1.003615148924999</v>
       </c>
       <c r="G9">
-        <v>0.9870244538872426</v>
+        <v>0.9911263220042859</v>
       </c>
       <c r="H9">
-        <v>1.004514637560676</v>
+        <v>1.003615148924999</v>
       </c>
       <c r="I9">
-        <v>0.9870244538872426</v>
+        <v>0.9911263220042859</v>
       </c>
       <c r="J9">
-        <v>1.002330348206932</v>
+        <v>1.001369065859894</v>
       </c>
       <c r="K9">
-        <v>1.004514637560676</v>
+        <v>1.003615148924999</v>
       </c>
       <c r="L9">
-        <v>1.002330348206932</v>
+        <v>1.001369065859894</v>
       </c>
       <c r="M9">
-        <v>0.9946774010470874</v>
+        <v>0.9962476939320899</v>
       </c>
       <c r="N9">
-        <v>0.9946774010470874</v>
+        <v>0.9962476939320899</v>
       </c>
       <c r="O9">
-        <v>0.9944227882556561</v>
+        <v>0.9961075086091661</v>
       </c>
       <c r="P9">
-        <v>0.9979564798849502</v>
+        <v>0.9987035122630598</v>
       </c>
       <c r="Q9">
-        <v>0.9979564798849502</v>
+        <v>0.9987035122630598</v>
       </c>
       <c r="R9">
-        <v>0.9995960193038815</v>
+        <v>0.9999314214285446</v>
       </c>
       <c r="S9">
-        <v>0.9995960193038815</v>
+        <v>0.9999314214285446</v>
       </c>
       <c r="T9">
-        <v>0.9992846599124197</v>
+        <v>0.999484605716867</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.050022242112039</v>
+        <v>1.000175584650901</v>
       </c>
       <c r="D10">
-        <v>0.8901285600602519</v>
+        <v>0.9996953136296278</v>
       </c>
       <c r="E10">
-        <v>1.181723565125295</v>
+        <v>0.9994981217320993</v>
       </c>
       <c r="F10">
-        <v>0.9964183924769775</v>
+        <v>1.000904345709062</v>
       </c>
       <c r="G10">
-        <v>0.8104593637871472</v>
+        <v>0.9990476075662951</v>
       </c>
       <c r="H10">
-        <v>0.9964183924769775</v>
+        <v>1.000904345709062</v>
       </c>
       <c r="I10">
-        <v>0.8104593637871472</v>
+        <v>0.9990476075662951</v>
       </c>
       <c r="J10">
-        <v>1.072081400736139</v>
+        <v>0.999875682363654</v>
       </c>
       <c r="K10">
-        <v>0.9964183924769775</v>
+        <v>1.000904345709062</v>
       </c>
       <c r="L10">
-        <v>1.072081400736139</v>
+        <v>0.999875682363654</v>
       </c>
       <c r="M10">
-        <v>0.9412703822616433</v>
+        <v>0.9994616449649745</v>
       </c>
       <c r="N10">
-        <v>0.9412703822616433</v>
+        <v>0.9994616449649745</v>
       </c>
       <c r="O10">
-        <v>0.9242231081945128</v>
+        <v>0.999539534519859</v>
       </c>
       <c r="P10">
-        <v>0.9596530523334214</v>
+        <v>0.9999425452130035</v>
       </c>
       <c r="Q10">
-        <v>0.9596530523334215</v>
+        <v>0.9999425452130036</v>
       </c>
       <c r="R10">
-        <v>0.9688443873693104</v>
+        <v>1.000182995337018</v>
       </c>
       <c r="S10">
-        <v>0.9688443873693104</v>
+        <v>1.000182995337018</v>
       </c>
       <c r="T10">
-        <v>1.000138920716308</v>
+        <v>0.9998661092752732</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.030145054151836</v>
+        <v>1.002967167807092</v>
       </c>
       <c r="D11">
-        <v>0.9305910766820134</v>
+        <v>0.9939135626727936</v>
       </c>
       <c r="E11">
-        <v>1.11129016368297</v>
+        <v>1.004957789339782</v>
       </c>
       <c r="F11">
-        <v>1.008907961864615</v>
+        <v>1.004514637560676</v>
       </c>
       <c r="G11">
-        <v>0.8876539919539809</v>
+        <v>0.9870244538872426</v>
       </c>
       <c r="H11">
-        <v>1.008907961864615</v>
+        <v>1.004514637560676</v>
       </c>
       <c r="I11">
-        <v>0.8876539919539809</v>
+        <v>0.9870244538872426</v>
       </c>
       <c r="J11">
-        <v>1.038884594350739</v>
+        <v>1.002330348206932</v>
       </c>
       <c r="K11">
-        <v>1.008907961864615</v>
+        <v>1.004514637560676</v>
       </c>
       <c r="L11">
-        <v>1.038884594350739</v>
+        <v>1.002330348206932</v>
       </c>
       <c r="M11">
-        <v>0.9632692931523597</v>
+        <v>0.9946774010470874</v>
       </c>
       <c r="N11">
-        <v>0.9632692931523597</v>
+        <v>0.9946774010470874</v>
       </c>
       <c r="O11">
-        <v>0.9523765543289109</v>
+        <v>0.9944227882556561</v>
       </c>
       <c r="P11">
-        <v>0.9784821827231115</v>
+        <v>0.9979564798849502</v>
       </c>
       <c r="Q11">
-        <v>0.9784821827231115</v>
+        <v>0.9979564798849502</v>
       </c>
       <c r="R11">
-        <v>0.9860886275084875</v>
+        <v>0.9995960193038815</v>
       </c>
       <c r="S11">
-        <v>0.9860886275084875</v>
+        <v>0.9995960193038815</v>
       </c>
       <c r="T11">
-        <v>1.001245473781026</v>
+        <v>0.9992846599124197</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.016015130168423</v>
+        <v>1.050022242112039</v>
       </c>
       <c r="D12">
-        <v>0.9648286567157899</v>
+        <v>0.8901285600602519</v>
       </c>
       <c r="E12">
-        <v>1.056334868378946</v>
+        <v>1.181723565125295</v>
       </c>
       <c r="F12">
-        <v>1.000955043084212</v>
+        <v>0.9964183924769775</v>
       </c>
       <c r="G12">
-        <v>0.9386744326736818</v>
+        <v>0.8104593637871472</v>
       </c>
       <c r="H12">
-        <v>1.000955043084212</v>
+        <v>0.9964183924769775</v>
       </c>
       <c r="I12">
-        <v>0.9386744326736818</v>
+        <v>0.8104593637871472</v>
       </c>
       <c r="J12">
-        <v>1.022212691231578</v>
+        <v>1.072081400736139</v>
       </c>
       <c r="K12">
-        <v>1.000955043084212</v>
+        <v>0.9964183924769775</v>
       </c>
       <c r="L12">
-        <v>1.022212691231578</v>
+        <v>1.072081400736139</v>
       </c>
       <c r="M12">
-        <v>0.9804435619526299</v>
+        <v>0.9412703822616433</v>
       </c>
       <c r="N12">
-        <v>0.9804435619526299</v>
+        <v>0.9412703822616433</v>
       </c>
       <c r="O12">
-        <v>0.9752385935403499</v>
+        <v>0.9242231081945128</v>
       </c>
       <c r="P12">
-        <v>0.987280722329824</v>
+        <v>0.9596530523334214</v>
       </c>
       <c r="Q12">
-        <v>0.987280722329824</v>
+        <v>0.9596530523334215</v>
       </c>
       <c r="R12">
-        <v>0.990699302518421</v>
+        <v>0.9688443873693104</v>
       </c>
       <c r="S12">
-        <v>0.990699302518421</v>
+        <v>0.9688443873693104</v>
       </c>
       <c r="T12">
-        <v>0.9998368037087718</v>
+        <v>1.000138920716308</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9901318950068353</v>
+        <v>1.030145054151836</v>
       </c>
       <c r="D13">
-        <v>1.022213070888607</v>
+        <v>0.9305910766820134</v>
       </c>
       <c r="E13">
-        <v>0.9721911552389385</v>
+        <v>1.11129016368297</v>
       </c>
       <c r="F13">
-        <v>0.989899920014533</v>
+        <v>1.008907961864615</v>
       </c>
       <c r="G13">
-        <v>1.038497272460191</v>
+        <v>0.8876539919539809</v>
       </c>
       <c r="H13">
-        <v>0.989899920014533</v>
+        <v>1.008907961864615</v>
       </c>
       <c r="I13">
-        <v>1.038497272460191</v>
+        <v>0.8876539919539809</v>
       </c>
       <c r="J13">
-        <v>0.9902273579528168</v>
+        <v>1.038884594350739</v>
       </c>
       <c r="K13">
-        <v>0.989899920014533</v>
+        <v>1.008907961864615</v>
       </c>
       <c r="L13">
-        <v>0.9902273579528168</v>
+        <v>1.038884594350739</v>
       </c>
       <c r="M13">
-        <v>1.014362315206504</v>
+        <v>0.9632692931523597</v>
       </c>
       <c r="N13">
-        <v>1.014362315206504</v>
+        <v>0.9632692931523597</v>
       </c>
       <c r="O13">
-        <v>1.016979233767205</v>
+        <v>0.9523765543289109</v>
       </c>
       <c r="P13">
-        <v>1.006208183475847</v>
+        <v>0.9784821827231115</v>
       </c>
       <c r="Q13">
-        <v>1.006208183475847</v>
+        <v>0.9784821827231115</v>
       </c>
       <c r="R13">
-        <v>1.002131117610518</v>
+        <v>0.9860886275084875</v>
       </c>
       <c r="S13">
-        <v>1.002131117610518</v>
+        <v>0.9860886275084875</v>
       </c>
       <c r="T13">
-        <v>1.000526778593654</v>
+        <v>1.001245473781026</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.0863871</v>
+        <v>1.016015130168423</v>
       </c>
       <c r="D14">
-        <v>0.8102074900000015</v>
+        <v>0.9648286567157899</v>
       </c>
       <c r="E14">
-        <v>1.315735799999999</v>
+        <v>1.056334868378946</v>
       </c>
       <c r="F14">
-        <v>0.9917943100000015</v>
+        <v>1.000955043084212</v>
       </c>
       <c r="G14">
-        <v>0.6734045099999993</v>
+        <v>0.9386744326736818</v>
       </c>
       <c r="H14">
-        <v>0.9917943100000015</v>
+        <v>1.000955043084212</v>
       </c>
       <c r="I14">
-        <v>0.6734045099999993</v>
+        <v>0.9386744326736818</v>
       </c>
       <c r="J14">
-        <v>1.125314099999998</v>
+        <v>1.022212691231578</v>
       </c>
       <c r="K14">
-        <v>0.9917943100000015</v>
+        <v>1.000955043084212</v>
       </c>
       <c r="L14">
-        <v>1.125314099999998</v>
+        <v>1.022212691231578</v>
       </c>
       <c r="M14">
-        <v>0.8993593049999988</v>
+        <v>0.9804435619526299</v>
       </c>
       <c r="N14">
-        <v>0.8993593049999988</v>
+        <v>0.9804435619526299</v>
       </c>
       <c r="O14">
-        <v>0.8696420333333331</v>
+        <v>0.9752385935403499</v>
       </c>
       <c r="P14">
-        <v>0.9301709733333331</v>
+        <v>0.987280722329824</v>
       </c>
       <c r="Q14">
-        <v>0.9301709733333331</v>
+        <v>0.987280722329824</v>
       </c>
       <c r="R14">
-        <v>0.9455768075000002</v>
+        <v>0.990699302518421</v>
       </c>
       <c r="S14">
-        <v>0.9455768075000002</v>
+        <v>0.990699302518421</v>
       </c>
       <c r="T14">
-        <v>1.000473885</v>
+        <v>0.9998368037087718</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.1014624</v>
+        <v>0.9901318950068353</v>
       </c>
       <c r="D15">
-        <v>0.7938064500000001</v>
+        <v>1.022213070888607</v>
       </c>
       <c r="E15">
-        <v>0.9618347200000001</v>
+        <v>0.9721911552389385</v>
       </c>
       <c r="F15">
-        <v>1.3679559</v>
+        <v>0.989899920014533</v>
       </c>
       <c r="G15">
-        <v>0.5229061699999999</v>
+        <v>1.038497272460191</v>
       </c>
       <c r="H15">
-        <v>1.3679559</v>
+        <v>0.989899920014533</v>
       </c>
       <c r="I15">
-        <v>0.5229061699999999</v>
+        <v>1.038497272460191</v>
       </c>
       <c r="J15">
-        <v>0.99179431</v>
+        <v>0.9902273579528168</v>
       </c>
       <c r="K15">
-        <v>1.3679559</v>
+        <v>0.989899920014533</v>
       </c>
       <c r="L15">
-        <v>0.99179431</v>
+        <v>0.9902273579528168</v>
       </c>
       <c r="M15">
-        <v>0.75735024</v>
+        <v>1.014362315206504</v>
       </c>
       <c r="N15">
-        <v>0.75735024</v>
+        <v>1.014362315206504</v>
       </c>
       <c r="O15">
-        <v>0.76950231</v>
+        <v>1.016979233767205</v>
       </c>
       <c r="P15">
-        <v>0.9608854599999997</v>
+        <v>1.006208183475847</v>
       </c>
       <c r="Q15">
-        <v>0.9608854599999997</v>
+        <v>1.006208183475847</v>
       </c>
       <c r="R15">
-        <v>1.06265307</v>
+        <v>1.002131117610518</v>
       </c>
       <c r="S15">
-        <v>1.06265307</v>
+        <v>1.002131117610518</v>
       </c>
       <c r="T15">
-        <v>0.9566266583333332</v>
+        <v>1.000526778593654</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.2125577</v>
+        <v>1.0863871</v>
       </c>
       <c r="D16">
-        <v>0.49189623</v>
+        <v>0.8102074900000015</v>
       </c>
       <c r="E16">
-        <v>1.9473815</v>
+        <v>1.315735799999999</v>
       </c>
       <c r="F16">
-        <v>0.9618347200000001</v>
+        <v>0.9917943100000015</v>
       </c>
       <c r="G16">
-        <v>0.25020352</v>
+        <v>0.6734045099999993</v>
       </c>
       <c r="H16">
-        <v>0.9618347200000001</v>
+        <v>0.9917943100000015</v>
       </c>
       <c r="I16">
-        <v>0.25020352</v>
+        <v>0.6734045099999993</v>
       </c>
       <c r="J16">
-        <v>1.3157358</v>
+        <v>1.125314099999998</v>
       </c>
       <c r="K16">
-        <v>0.9618347200000001</v>
+        <v>0.9917943100000015</v>
       </c>
       <c r="L16">
-        <v>1.3157358</v>
+        <v>1.125314099999998</v>
       </c>
       <c r="M16">
-        <v>0.78296966</v>
+        <v>0.8993593049999988</v>
       </c>
       <c r="N16">
-        <v>0.78296966</v>
+        <v>0.8993593049999988</v>
       </c>
       <c r="O16">
-        <v>0.6859451833333333</v>
+        <v>0.8696420333333331</v>
       </c>
       <c r="P16">
-        <v>0.8425913466666667</v>
+        <v>0.9301709733333331</v>
       </c>
       <c r="Q16">
-        <v>0.8425913466666666</v>
+        <v>0.9301709733333331</v>
       </c>
       <c r="R16">
-        <v>0.87240219</v>
+        <v>0.9455768075000002</v>
       </c>
       <c r="S16">
-        <v>0.87240219</v>
+        <v>0.9455768075000002</v>
       </c>
       <c r="T16">
-        <v>1.029934911666667</v>
+        <v>1.000473885</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.012886</v>
+        <v>1.1014624</v>
       </c>
       <c r="D17">
-        <v>0.98424247</v>
+        <v>0.7938064500000001</v>
       </c>
       <c r="E17">
-        <v>0.90037857</v>
+        <v>0.9618347200000001</v>
       </c>
       <c r="F17">
-        <v>1.1082556</v>
+        <v>1.3679559</v>
       </c>
       <c r="G17">
-        <v>0.91308462</v>
+        <v>0.5229061699999999</v>
       </c>
       <c r="H17">
-        <v>1.1082556</v>
+        <v>1.3679559</v>
       </c>
       <c r="I17">
-        <v>0.91308462</v>
+        <v>0.5229061699999999</v>
       </c>
       <c r="J17">
-        <v>0.97363919</v>
+        <v>0.99179431</v>
       </c>
       <c r="K17">
-        <v>1.1082556</v>
+        <v>1.3679559</v>
       </c>
       <c r="L17">
-        <v>0.97363919</v>
+        <v>0.99179431</v>
       </c>
       <c r="M17">
-        <v>0.9433619049999999</v>
+        <v>0.75735024</v>
       </c>
       <c r="N17">
-        <v>0.9433619049999999</v>
+        <v>0.75735024</v>
       </c>
       <c r="O17">
-        <v>0.9569887599999999</v>
+        <v>0.76950231</v>
       </c>
       <c r="P17">
-        <v>0.99832647</v>
+        <v>0.9608854599999997</v>
       </c>
       <c r="Q17">
-        <v>0.99832647</v>
+        <v>0.9608854599999997</v>
       </c>
       <c r="R17">
-        <v>1.0258087525</v>
+        <v>1.06265307</v>
       </c>
       <c r="S17">
-        <v>1.0258087525</v>
+        <v>1.06265307</v>
       </c>
       <c r="T17">
-        <v>0.982081075</v>
+        <v>0.9566266583333332</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.036389898630137</v>
+        <v>1.2125577</v>
       </c>
       <c r="D18">
-        <v>0.9253719497260274</v>
+        <v>0.49189623</v>
       </c>
       <c r="E18">
-        <v>1.057229300821918</v>
+        <v>1.9473815</v>
       </c>
       <c r="F18">
-        <v>1.059140436986302</v>
+        <v>0.9618347200000001</v>
       </c>
       <c r="G18">
-        <v>0.8402270360273973</v>
+        <v>0.25020352</v>
       </c>
       <c r="H18">
-        <v>1.059140436986302</v>
+        <v>0.9618347200000001</v>
       </c>
       <c r="I18">
-        <v>0.8402270360273973</v>
+        <v>0.25020352</v>
       </c>
       <c r="J18">
-        <v>1.027027528904109</v>
+        <v>1.3157358</v>
       </c>
       <c r="K18">
-        <v>1.059140436986302</v>
+        <v>0.9618347200000001</v>
       </c>
       <c r="L18">
-        <v>1.027027528904109</v>
+        <v>1.3157358</v>
       </c>
       <c r="M18">
-        <v>0.9336272824657533</v>
+        <v>0.78296966</v>
       </c>
       <c r="N18">
-        <v>0.9336272824657533</v>
+        <v>0.78296966</v>
       </c>
       <c r="O18">
-        <v>0.9308755048858447</v>
+        <v>0.6859451833333333</v>
       </c>
       <c r="P18">
-        <v>0.9754650006392694</v>
+        <v>0.8425913466666667</v>
       </c>
       <c r="Q18">
-        <v>0.9754650006392694</v>
+        <v>0.8425913466666666</v>
       </c>
       <c r="R18">
-        <v>0.9963838597260275</v>
+        <v>0.87240219</v>
       </c>
       <c r="S18">
-        <v>0.9963838597260275</v>
+        <v>0.87240219</v>
       </c>
       <c r="T18">
-        <v>0.9908976918493151</v>
+        <v>1.029934911666667</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.032922055789474</v>
+        <v>1.012886</v>
       </c>
       <c r="D19">
-        <v>0.9144072342105264</v>
+        <v>0.98424247</v>
       </c>
       <c r="E19">
-        <v>1.203647928421053</v>
+        <v>0.90037857</v>
       </c>
       <c r="F19">
-        <v>0.9584451015789475</v>
+        <v>1.1082556</v>
       </c>
       <c r="G19">
-        <v>0.9028523952631577</v>
+        <v>0.91308462</v>
       </c>
       <c r="H19">
-        <v>0.9584451015789475</v>
+        <v>1.1082556</v>
       </c>
       <c r="I19">
-        <v>0.9028523952631577</v>
+        <v>0.91308462</v>
       </c>
       <c r="J19">
-        <v>1.063570988421053</v>
+        <v>0.97363919</v>
       </c>
       <c r="K19">
-        <v>0.9584451015789475</v>
+        <v>1.1082556</v>
       </c>
       <c r="L19">
-        <v>1.063570988421053</v>
+        <v>0.97363919</v>
       </c>
       <c r="M19">
-        <v>0.9832116918421052</v>
+        <v>0.9433619049999999</v>
       </c>
       <c r="N19">
-        <v>0.9832116918421052</v>
+        <v>0.9433619049999999</v>
       </c>
       <c r="O19">
-        <v>0.9602768726315789</v>
+        <v>0.9569887599999999</v>
       </c>
       <c r="P19">
-        <v>0.9749561617543859</v>
+        <v>0.99832647</v>
       </c>
       <c r="Q19">
-        <v>0.9749561617543859</v>
+        <v>0.99832647</v>
       </c>
       <c r="R19">
-        <v>0.9708283967105262</v>
+        <v>1.0258087525</v>
       </c>
       <c r="S19">
-        <v>0.9708283967105262</v>
+        <v>1.0258087525</v>
       </c>
       <c r="T19">
-        <v>1.012640950614035</v>
+        <v>0.982081075</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.093924742105263</v>
+        <v>1.036389898630137</v>
       </c>
       <c r="D20">
-        <v>0.8020069699999999</v>
+        <v>0.9253719497260274</v>
       </c>
       <c r="E20">
-        <v>1.13878526</v>
+        <v>1.057229300821918</v>
       </c>
       <c r="F20">
-        <v>1.179875116842106</v>
+        <v>1.059140436986302</v>
       </c>
       <c r="G20">
-        <v>0.5981553399999998</v>
+        <v>0.8402270360273973</v>
       </c>
       <c r="H20">
-        <v>1.179875116842106</v>
+        <v>1.059140436986302</v>
       </c>
       <c r="I20">
-        <v>0.5981553399999998</v>
+        <v>0.8402270360273973</v>
       </c>
       <c r="J20">
-        <v>1.058554216842105</v>
+        <v>1.027027528904109</v>
       </c>
       <c r="K20">
-        <v>1.179875116842106</v>
+        <v>1.059140436986302</v>
       </c>
       <c r="L20">
-        <v>1.058554216842105</v>
+        <v>1.027027528904109</v>
       </c>
       <c r="M20">
-        <v>0.8283547784210525</v>
+        <v>0.9336272824657533</v>
       </c>
       <c r="N20">
-        <v>0.8283547784210525</v>
+        <v>0.9336272824657533</v>
       </c>
       <c r="O20">
-        <v>0.8195721756140349</v>
+        <v>0.9308755048858447</v>
       </c>
       <c r="P20">
-        <v>0.9455282245614036</v>
+        <v>0.9754650006392694</v>
       </c>
       <c r="Q20">
-        <v>0.9455282245614036</v>
+        <v>0.9754650006392694</v>
       </c>
       <c r="R20">
-        <v>1.004114947631579</v>
+        <v>0.9963838597260275</v>
       </c>
       <c r="S20">
-        <v>1.004114947631579</v>
+        <v>0.9963838597260275</v>
       </c>
       <c r="T20">
-        <v>0.9785502742982456</v>
+        <v>0.9908976918493151</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9237120272003099</v>
+        <v>1.032922055789474</v>
       </c>
       <c r="D21">
-        <v>1.155687464767944</v>
+        <v>0.9144072342105264</v>
       </c>
       <c r="E21">
-        <v>0.8891843764791993</v>
+        <v>1.203647928421053</v>
       </c>
       <c r="F21">
-        <v>0.8700956238553862</v>
+        <v>0.9584451015789475</v>
       </c>
       <c r="G21">
-        <v>1.335061443235451</v>
+        <v>0.9028523952631577</v>
       </c>
       <c r="H21">
-        <v>0.8700956238553862</v>
+        <v>0.9584451015789475</v>
       </c>
       <c r="I21">
-        <v>1.335061443235451</v>
+        <v>0.9028523952631577</v>
       </c>
       <c r="J21">
-        <v>0.9457763916802239</v>
+        <v>1.063570988421053</v>
       </c>
       <c r="K21">
-        <v>0.8700956238553862</v>
+        <v>0.9584451015789475</v>
       </c>
       <c r="L21">
-        <v>0.9457763916802239</v>
+        <v>1.063570988421053</v>
       </c>
       <c r="M21">
-        <v>1.140418917457837</v>
+        <v>0.9832116918421052</v>
       </c>
       <c r="N21">
-        <v>1.140418917457837</v>
+        <v>0.9832116918421052</v>
       </c>
       <c r="O21">
-        <v>1.145508433227873</v>
+        <v>0.9602768726315789</v>
       </c>
       <c r="P21">
-        <v>1.050311152923687</v>
+        <v>0.9749561617543859</v>
       </c>
       <c r="Q21">
-        <v>1.050311152923687</v>
+        <v>0.9749561617543859</v>
       </c>
       <c r="R21">
-        <v>1.005257270656612</v>
+        <v>0.9708283967105262</v>
       </c>
       <c r="S21">
-        <v>1.005257270656612</v>
+        <v>0.9708283967105262</v>
       </c>
       <c r="T21">
-        <v>1.019919554536419</v>
+        <v>1.012640950614035</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9847977284212999</v>
+        <v>1.093924742105263</v>
       </c>
       <c r="D22">
-        <v>1.04199403505895</v>
+        <v>0.8020069699999999</v>
       </c>
       <c r="E22">
-        <v>0.9161628456874087</v>
+        <v>1.13878526</v>
       </c>
       <c r="F22">
-        <v>0.9994301372983533</v>
+        <v>1.179875116842106</v>
       </c>
       <c r="G22">
-        <v>1.042647621188965</v>
+        <v>0.5981553399999998</v>
       </c>
       <c r="H22">
-        <v>0.9994301372983533</v>
+        <v>1.179875116842106</v>
       </c>
       <c r="I22">
-        <v>1.042647621188965</v>
+        <v>0.5981553399999998</v>
       </c>
       <c r="J22">
-        <v>0.9787761668046858</v>
+        <v>1.058554216842105</v>
       </c>
       <c r="K22">
-        <v>0.9994301372983533</v>
+        <v>1.179875116842106</v>
       </c>
       <c r="L22">
-        <v>0.9787761668046858</v>
+        <v>1.058554216842105</v>
       </c>
       <c r="M22">
-        <v>1.010711893996826</v>
+        <v>0.8283547784210525</v>
       </c>
       <c r="N22">
-        <v>1.010711893996826</v>
+        <v>0.8283547784210525</v>
       </c>
       <c r="O22">
-        <v>1.021139274350867</v>
+        <v>0.8195721756140349</v>
       </c>
       <c r="P22">
-        <v>1.006951308430668</v>
+        <v>0.9455282245614036</v>
       </c>
       <c r="Q22">
-        <v>1.006951308430668</v>
+        <v>0.9455282245614036</v>
       </c>
       <c r="R22">
-        <v>1.005071015647589</v>
+        <v>1.004114947631579</v>
       </c>
       <c r="S22">
-        <v>1.005071015647589</v>
+        <v>1.004114947631579</v>
       </c>
       <c r="T22">
-        <v>0.9939680890766104</v>
+        <v>0.9785502742982456</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9789606011489488</v>
+        <v>0.9237120272003099</v>
       </c>
       <c r="D23">
-        <v>1.05017208908841</v>
+        <v>1.155687464767944</v>
       </c>
       <c r="E23">
-        <v>0.9327484584809496</v>
+        <v>0.8891843764791993</v>
       </c>
       <c r="F23">
-        <v>0.9762328983501093</v>
+        <v>0.8700956238553862</v>
       </c>
       <c r="G23">
-        <v>1.077877451537533</v>
+        <v>1.335061443235451</v>
       </c>
       <c r="H23">
-        <v>0.9762328983501093</v>
+        <v>0.8700956238553862</v>
       </c>
       <c r="I23">
-        <v>1.077877451537533</v>
+        <v>1.335061443235451</v>
       </c>
       <c r="J23">
-        <v>0.9800831147905154</v>
+        <v>0.9457763916802239</v>
       </c>
       <c r="K23">
-        <v>0.9762328983501093</v>
+        <v>0.8700956238553862</v>
       </c>
       <c r="L23">
-        <v>0.9800831147905154</v>
+        <v>0.9457763916802239</v>
       </c>
       <c r="M23">
-        <v>1.028980283164024</v>
+        <v>1.140418917457837</v>
       </c>
       <c r="N23">
-        <v>1.028980283164024</v>
+        <v>1.140418917457837</v>
       </c>
       <c r="O23">
-        <v>1.036044218472153</v>
+        <v>1.145508433227873</v>
       </c>
       <c r="P23">
-        <v>1.011397821559386</v>
+        <v>1.050311152923687</v>
       </c>
       <c r="Q23">
-        <v>1.011397821559386</v>
+        <v>1.050311152923687</v>
       </c>
       <c r="R23">
-        <v>1.002606590757067</v>
+        <v>1.005257270656612</v>
       </c>
       <c r="S23">
-        <v>1.002606590757067</v>
+        <v>1.005257270656612</v>
       </c>
       <c r="T23">
-        <v>0.9993457688994112</v>
+        <v>1.019919554536419</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9926053784202922</v>
+        <v>0.9847977284212999</v>
       </c>
       <c r="D24">
-        <v>1.011857164849821</v>
+        <v>1.04199403505895</v>
       </c>
       <c r="E24">
-        <v>0.9900919982056045</v>
+        <v>0.9161628456874087</v>
       </c>
       <c r="F24">
-        <v>0.9988460005791482</v>
+        <v>0.9994301372983533</v>
       </c>
       <c r="G24">
-        <v>1.036008032146925</v>
+        <v>1.042647621188965</v>
       </c>
       <c r="H24">
-        <v>0.9988460005791482</v>
+        <v>0.9994301372983533</v>
       </c>
       <c r="I24">
-        <v>1.036008032146925</v>
+        <v>1.042647621188965</v>
       </c>
       <c r="J24">
-        <v>0.9900372152319273</v>
+        <v>0.9787761668046858</v>
       </c>
       <c r="K24">
-        <v>0.9988460005791482</v>
+        <v>0.9994301372983533</v>
       </c>
       <c r="L24">
-        <v>0.9900372152319273</v>
+        <v>0.9787761668046858</v>
       </c>
       <c r="M24">
-        <v>1.013022623689426</v>
+        <v>1.010711893996826</v>
       </c>
       <c r="N24">
-        <v>1.013022623689426</v>
+        <v>1.010711893996826</v>
       </c>
       <c r="O24">
-        <v>1.012634137409558</v>
+        <v>1.021139274350867</v>
       </c>
       <c r="P24">
-        <v>1.008297082652667</v>
+        <v>1.006951308430668</v>
       </c>
       <c r="Q24">
-        <v>1.008297082652667</v>
+        <v>1.006951308430668</v>
       </c>
       <c r="R24">
-        <v>1.005934312134287</v>
+        <v>1.005071015647589</v>
       </c>
       <c r="S24">
-        <v>1.005934312134287</v>
+        <v>1.005071015647589</v>
       </c>
       <c r="T24">
-        <v>1.00324096490562</v>
+        <v>0.9939680890766104</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.076831202290409</v>
+        <v>0.9789606011489488</v>
       </c>
       <c r="D25">
-        <v>0.8426804539050847</v>
+        <v>1.05017208908841</v>
       </c>
       <c r="E25">
-        <v>1.040066695130711</v>
+        <v>0.9327484584809496</v>
       </c>
       <c r="F25">
-        <v>1.209199205433904</v>
+        <v>0.9762328983501093</v>
       </c>
       <c r="G25">
-        <v>0.6516794280098702</v>
+        <v>1.077877451537533</v>
       </c>
       <c r="H25">
-        <v>1.209199205433904</v>
+        <v>0.9762328983501093</v>
       </c>
       <c r="I25">
-        <v>0.6516794280098702</v>
+        <v>1.077877451537533</v>
       </c>
       <c r="J25">
-        <v>1.022358760569408</v>
+        <v>0.9800831147905154</v>
       </c>
       <c r="K25">
-        <v>1.209199205433904</v>
+        <v>0.9762328983501093</v>
       </c>
       <c r="L25">
-        <v>1.022358760569408</v>
+        <v>0.9800831147905154</v>
       </c>
       <c r="M25">
-        <v>0.8370190942896394</v>
+        <v>1.028980283164024</v>
       </c>
       <c r="N25">
-        <v>0.8370190942896394</v>
+        <v>1.028980283164024</v>
       </c>
       <c r="O25">
-        <v>0.8389062141614545</v>
+        <v>1.036044218472153</v>
       </c>
       <c r="P25">
-        <v>0.9610791313377275</v>
+        <v>1.011397821559386</v>
       </c>
       <c r="Q25">
-        <v>0.9610791313377275</v>
+        <v>1.011397821559386</v>
       </c>
       <c r="R25">
-        <v>1.023109149861771</v>
+        <v>1.002606590757067</v>
       </c>
       <c r="S25">
-        <v>1.023109149861771</v>
+        <v>1.002606590757067</v>
       </c>
       <c r="T25">
-        <v>0.9738026242232311</v>
+        <v>0.9993457688994112</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.01624753496696</v>
+        <v>0.9926053784202922</v>
       </c>
       <c r="D26">
-        <v>0.9624088333558491</v>
+        <v>1.011857164849821</v>
       </c>
       <c r="E26">
-        <v>1.106335847993797</v>
+        <v>0.9900919982056045</v>
       </c>
       <c r="F26">
-        <v>0.9557657070441085</v>
+        <v>0.9988460005791482</v>
       </c>
       <c r="G26">
-        <v>0.9475848549883495</v>
+        <v>1.036008032146925</v>
       </c>
       <c r="H26">
-        <v>0.9557657070441085</v>
+        <v>0.9988460005791482</v>
       </c>
       <c r="I26">
-        <v>0.9475848549883495</v>
+        <v>1.036008032146925</v>
       </c>
       <c r="J26">
-        <v>1.041137176235208</v>
+        <v>0.9900372152319273</v>
       </c>
       <c r="K26">
-        <v>0.9557657070441085</v>
+        <v>0.9988460005791482</v>
       </c>
       <c r="L26">
-        <v>1.041137176235208</v>
+        <v>0.9900372152319273</v>
       </c>
       <c r="M26">
-        <v>0.9943610156117786</v>
+        <v>1.013022623689426</v>
       </c>
       <c r="N26">
-        <v>0.9943610156117786</v>
+        <v>1.013022623689426</v>
       </c>
       <c r="O26">
-        <v>0.9837102881931354</v>
+        <v>1.012634137409558</v>
       </c>
       <c r="P26">
-        <v>0.9814959127558885</v>
+        <v>1.008297082652667</v>
       </c>
       <c r="Q26">
-        <v>0.9814959127558884</v>
+        <v>1.008297082652667</v>
       </c>
       <c r="R26">
-        <v>0.9750633613279435</v>
+        <v>1.005934312134287</v>
       </c>
       <c r="S26">
-        <v>0.9750633613279435</v>
+        <v>1.005934312134287</v>
       </c>
       <c r="T26">
-        <v>1.004913325764045</v>
+        <v>1.00324096490562</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.00463166672915</v>
+        <v>1.076831202290409</v>
       </c>
       <c r="D27">
-        <v>0.9871814698368729</v>
+        <v>0.8426804539050847</v>
       </c>
       <c r="E27">
-        <v>1.013743867571337</v>
+        <v>1.040066695130711</v>
       </c>
       <c r="F27">
-        <v>1.012021657389473</v>
+        <v>1.209199205433904</v>
       </c>
       <c r="G27">
-        <v>0.9870565266743779</v>
+        <v>0.6516794280098702</v>
       </c>
       <c r="H27">
-        <v>1.012021657389473</v>
+        <v>1.209199205433904</v>
       </c>
       <c r="I27">
-        <v>0.9870565266743779</v>
+        <v>0.6516794280098702</v>
       </c>
       <c r="J27">
-        <v>1.001590508655779</v>
+        <v>1.022358760569408</v>
       </c>
       <c r="K27">
-        <v>1.012021657389473</v>
+        <v>1.209199205433904</v>
       </c>
       <c r="L27">
-        <v>1.001590508655779</v>
+        <v>1.022358760569408</v>
       </c>
       <c r="M27">
-        <v>0.9943235176650786</v>
+        <v>0.8370190942896394</v>
       </c>
       <c r="N27">
-        <v>0.9943235176650786</v>
+        <v>0.8370190942896394</v>
       </c>
       <c r="O27">
-        <v>0.9919428350556768</v>
+        <v>0.8389062141614545</v>
       </c>
       <c r="P27">
-        <v>1.00022289757321</v>
+        <v>0.9610791313377275</v>
       </c>
       <c r="Q27">
-        <v>1.00022289757321</v>
+        <v>0.9610791313377275</v>
       </c>
       <c r="R27">
-        <v>1.003172587527276</v>
+        <v>1.023109149861771</v>
       </c>
       <c r="S27">
-        <v>1.003172587527276</v>
+        <v>1.023109149861771</v>
       </c>
       <c r="T27">
-        <v>1.001037616142832</v>
+        <v>0.9738026242232311</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.009844347310388</v>
+        <v>1.01624753496696</v>
       </c>
       <c r="D28">
-        <v>0.9797353545962898</v>
+        <v>0.9624088333558491</v>
       </c>
       <c r="E28">
-        <v>1.013527238219397</v>
+        <v>1.106335847993797</v>
       </c>
       <c r="F28">
-        <v>1.018391404170891</v>
+        <v>0.9557657070441085</v>
       </c>
       <c r="G28">
-        <v>0.9565085723005406</v>
+        <v>0.9475848549883495</v>
       </c>
       <c r="H28">
-        <v>1.018391404170891</v>
+        <v>0.9557657070441085</v>
       </c>
       <c r="I28">
-        <v>0.9565085723005406</v>
+        <v>0.9475848549883495</v>
       </c>
       <c r="J28">
-        <v>1.006327043632693</v>
+        <v>1.041137176235208</v>
       </c>
       <c r="K28">
-        <v>1.018391404170891</v>
+        <v>0.9557657070441085</v>
       </c>
       <c r="L28">
-        <v>1.006327043632693</v>
+        <v>1.041137176235208</v>
       </c>
       <c r="M28">
-        <v>0.9814178079666169</v>
+        <v>0.9943610156117786</v>
       </c>
       <c r="N28">
-        <v>0.9814178079666169</v>
+        <v>0.9943610156117786</v>
       </c>
       <c r="O28">
-        <v>0.980856990176508</v>
+        <v>0.9837102881931354</v>
       </c>
       <c r="P28">
-        <v>0.9937423400347084</v>
+        <v>0.9814959127558885</v>
       </c>
       <c r="Q28">
-        <v>0.9937423400347084</v>
+        <v>0.9814959127558884</v>
       </c>
       <c r="R28">
-        <v>0.999904606068754</v>
+        <v>0.9750633613279435</v>
       </c>
       <c r="S28">
-        <v>0.999904606068754</v>
+        <v>0.9750633613279435</v>
       </c>
       <c r="T28">
-        <v>0.9973889933717</v>
+        <v>1.004913325764045</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>1.00463166672915</v>
+      </c>
+      <c r="D29">
+        <v>0.9871814698368729</v>
+      </c>
+      <c r="E29">
+        <v>1.013743867571337</v>
+      </c>
+      <c r="F29">
+        <v>1.012021657389473</v>
+      </c>
+      <c r="G29">
+        <v>0.9870565266743779</v>
+      </c>
+      <c r="H29">
+        <v>1.012021657389473</v>
+      </c>
+      <c r="I29">
+        <v>0.9870565266743779</v>
+      </c>
+      <c r="J29">
+        <v>1.001590508655779</v>
+      </c>
+      <c r="K29">
+        <v>1.012021657389473</v>
+      </c>
+      <c r="L29">
+        <v>1.001590508655779</v>
+      </c>
+      <c r="M29">
+        <v>0.9943235176650786</v>
+      </c>
+      <c r="N29">
+        <v>0.9943235176650786</v>
+      </c>
+      <c r="O29">
+        <v>0.9919428350556768</v>
+      </c>
+      <c r="P29">
+        <v>1.00022289757321</v>
+      </c>
+      <c r="Q29">
+        <v>1.00022289757321</v>
+      </c>
+      <c r="R29">
+        <v>1.003172587527276</v>
+      </c>
+      <c r="S29">
+        <v>1.003172587527276</v>
+      </c>
+      <c r="T29">
+        <v>1.001037616142832</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.009844347310388</v>
+      </c>
+      <c r="D30">
+        <v>0.9797353545962898</v>
+      </c>
+      <c r="E30">
+        <v>1.013527238219397</v>
+      </c>
+      <c r="F30">
+        <v>1.018391404170891</v>
+      </c>
+      <c r="G30">
+        <v>0.9565085723005406</v>
+      </c>
+      <c r="H30">
+        <v>1.018391404170891</v>
+      </c>
+      <c r="I30">
+        <v>0.9565085723005406</v>
+      </c>
+      <c r="J30">
+        <v>1.006327043632693</v>
+      </c>
+      <c r="K30">
+        <v>1.018391404170891</v>
+      </c>
+      <c r="L30">
+        <v>1.006327043632693</v>
+      </c>
+      <c r="M30">
+        <v>0.9814178079666169</v>
+      </c>
+      <c r="N30">
+        <v>0.9814178079666169</v>
+      </c>
+      <c r="O30">
+        <v>0.980856990176508</v>
+      </c>
+      <c r="P30">
+        <v>0.9937423400347084</v>
+      </c>
+      <c r="Q30">
+        <v>0.9937423400347084</v>
+      </c>
+      <c r="R30">
+        <v>0.999904606068754</v>
+      </c>
+      <c r="S30">
+        <v>0.999904606068754</v>
+      </c>
+      <c r="T30">
+        <v>0.9973889933717</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.9934706138223061</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.014605155172839</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.9417775132367981</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>1.036438012246326</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>1.018633946610472</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.036438012246326</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>1.018633946610472</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.9757885550309708</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>1.036438012246326</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.9757885550309708</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.9972112508207215</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.9972112508207215</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>1.003009218938094</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.01028683796259</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.01028683796259</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.016824631533523</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.016824631533523</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>0.9967856326866187</v>
       </c>
     </row>
